--- a/Project-KTXForecasting/Result/Shared_20240703/Forecasting_경부선.xlsx
+++ b/Project-KTXForecasting/Result/Shared_20240703/Forecasting_경부선.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEIA]\[DEBA]\Project-KTXForecasting\Result\Shared_20240703\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF60AD6-7F52-45BF-AD24-6DD7852F8AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8674EC9-369D-4080-8D57-506EBECAD26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19296" yWindow="-84" windowWidth="19392" windowHeight="11472" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Performance_전체" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Performance_주중" sheetId="5" r:id="rId5"/>
     <sheet name="Forecasting_주중" sheetId="6" r:id="rId6"/>
     <sheet name="수요예측정리" sheetId="7" r:id="rId7"/>
+    <sheet name="예측오차율" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="52">
   <si>
     <t>MSE</t>
   </si>
@@ -142,6 +143,81 @@
     <t>Time</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>오차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오차율</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월</t>
+  </si>
+  <si>
+    <t>9월</t>
+  </si>
+  <si>
+    <t>10월</t>
+  </si>
+  <si>
+    <t>11월</t>
+  </si>
+  <si>
+    <t>12월</t>
+  </si>
+  <si>
+    <t>1월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023년</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024년</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실적치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예측치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균오차 및 오차율</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -152,9 +228,9 @@
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="177" formatCode="0.E+00"/>
     <numFmt numFmtId="178" formatCode="0.0000"/>
-    <numFmt numFmtId="183" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;;@"/>
+    <numFmt numFmtId="179" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +258,15 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -226,13 +311,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -249,25 +337,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="백분율" xfId="2" builtinId="5"/>
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -7560,13 +7666,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC77E230-1C25-4F02-A0C1-8A1307F547BC}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T43" sqref="T43"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="20.4140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.4140625" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="10" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.6640625" customWidth="1"/>
     <col min="12" max="12" width="10.58203125" bestFit="1" customWidth="1"/>
@@ -7577,21 +7683,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8" t="s">
+      <c r="H1" s="11"/>
+      <c r="I1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="8"/>
+      <c r="J1" s="11"/>
       <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.45">
@@ -7604,7 +7710,7 @@
       <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="14"/>
       <c r="E2" t="str">
         <f>Forecasting_전체!C1</f>
         <v>y</v>
@@ -7640,7 +7746,7 @@
       <c r="C3" s="5">
         <v>16</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="8">
         <v>45017</v>
       </c>
       <c r="E3" s="6">
@@ -7679,7 +7785,7 @@
       <c r="C4" s="5">
         <v>19</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="8">
         <v>45047</v>
       </c>
       <c r="E4" s="6">
@@ -7718,7 +7824,7 @@
       <c r="C5" s="5">
         <v>17</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="8">
         <v>45078</v>
       </c>
       <c r="E5" s="6">
@@ -7757,7 +7863,7 @@
       <c r="C6" s="5">
         <v>17</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="8">
         <v>45108</v>
       </c>
       <c r="E6" s="6">
@@ -7796,7 +7902,7 @@
       <c r="C7" s="5">
         <v>19</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="8">
         <v>45139</v>
       </c>
       <c r="E7" s="6">
@@ -7835,7 +7941,7 @@
       <c r="C8" s="5">
         <v>16</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="8">
         <v>45170</v>
       </c>
       <c r="E8" s="6">
@@ -7874,7 +7980,7 @@
       <c r="C9" s="5">
         <v>18</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="8">
         <v>45200</v>
       </c>
       <c r="E9" s="6">
@@ -7913,7 +8019,7 @@
       <c r="C10" s="5">
         <v>18</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="8">
         <v>45231</v>
       </c>
       <c r="E10" s="6">
@@ -7952,7 +8058,7 @@
       <c r="C11" s="5">
         <v>16</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="8">
         <v>45261</v>
       </c>
       <c r="E11" s="6">
@@ -7991,7 +8097,7 @@
       <c r="C12" s="5">
         <v>19</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="8">
         <v>45292</v>
       </c>
       <c r="E12" s="6">
@@ -8030,7 +8136,7 @@
       <c r="C13" s="5">
         <v>17</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="8">
         <v>45323</v>
       </c>
       <c r="E13" s="6">
@@ -8057,24 +8163,24 @@
         <f>Forecasting_주중!D12</f>
         <v>1566386.25</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K13" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="8" t="str">
+      <c r="L13" s="11" t="str">
         <f>E1</f>
         <v>전체</v>
       </c>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8" t="str">
+      <c r="M13" s="11"/>
+      <c r="N13" s="11" t="str">
         <f>G1</f>
         <v>주말</v>
       </c>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8" t="str">
+      <c r="O13" s="11"/>
+      <c r="P13" s="11" t="str">
         <f>I1</f>
         <v>주중</v>
       </c>
-      <c r="Q13" s="8"/>
+      <c r="Q13" s="11"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" s="5">
@@ -8086,7 +8192,7 @@
       <c r="C14" s="5">
         <v>16</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="8">
         <v>45352</v>
       </c>
       <c r="E14" s="6">
@@ -8113,7 +8219,7 @@
         <f>Forecasting_주중!D13</f>
         <v>1194498</v>
       </c>
-      <c r="K14" s="14"/>
+      <c r="K14" s="12"/>
       <c r="L14" t="str">
         <f>F2</f>
         <v>NBEATS</v>
@@ -8146,7 +8252,7 @@
       <c r="C15" s="5">
         <v>18</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="8">
         <v>45383</v>
       </c>
       <c r="E15" s="6">
@@ -8173,7 +8279,7 @@
         <f>Forecasting_주중!D14</f>
         <v>1422745</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K15" s="10">
         <f>D15</f>
         <v>45383</v>
       </c>
@@ -8212,7 +8318,7 @@
       <c r="C16" s="5">
         <v>18</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="8">
         <v>45413</v>
       </c>
       <c r="E16" s="6">
@@ -8239,32 +8345,32 @@
         <f>Forecasting_주중!D15</f>
         <v>1472937.25</v>
       </c>
-      <c r="K16" s="13">
-        <f t="shared" ref="K16:K35" si="0">D16</f>
+      <c r="K16" s="10">
+        <f>D16</f>
         <v>45413</v>
       </c>
       <c r="L16" s="6">
-        <f t="shared" ref="L16:L35" si="1">F16</f>
+        <f>F16</f>
         <v>3611019</v>
       </c>
       <c r="M16" s="6">
-        <f t="shared" ref="M16:M35" si="2">L16/A16</f>
+        <f>L16/A16</f>
         <v>116484.48387096774</v>
       </c>
       <c r="N16" s="6">
-        <f t="shared" ref="N16:N35" si="3">H16</f>
+        <f>H16</f>
         <v>1439347.625</v>
       </c>
       <c r="O16" s="6">
-        <f t="shared" ref="O16:O35" si="4">N16/B16</f>
+        <f>N16/B16</f>
         <v>110719.04807692308</v>
       </c>
       <c r="P16" s="6">
-        <f t="shared" ref="P16:P35" si="5">J16</f>
+        <f t="shared" ref="P16:P35" si="0">J16</f>
         <v>1472937.25</v>
       </c>
       <c r="Q16" s="6">
-        <f t="shared" ref="Q16:Q35" si="6">P16/C16</f>
+        <f>P16/C16</f>
         <v>81829.847222222219</v>
       </c>
     </row>
@@ -8278,7 +8384,7 @@
       <c r="C17" s="5">
         <v>16</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="8">
         <v>45444</v>
       </c>
       <c r="E17" s="6">
@@ -8305,32 +8411,32 @@
         <f>Forecasting_주중!D16</f>
         <v>1225282</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="10">
+        <f>D17</f>
+        <v>45444</v>
+      </c>
+      <c r="L17" s="6">
+        <f>F17</f>
+        <v>3573648.5</v>
+      </c>
+      <c r="M17" s="6">
+        <f>L17/A17</f>
+        <v>119121.61666666667</v>
+      </c>
+      <c r="N17" s="6">
+        <f>H17</f>
+        <v>1501630</v>
+      </c>
+      <c r="O17" s="6">
+        <f>N17/B17</f>
+        <v>107259.28571428571</v>
+      </c>
+      <c r="P17" s="6">
         <f t="shared" si="0"/>
-        <v>45444</v>
-      </c>
-      <c r="L17" s="6">
-        <f t="shared" si="1"/>
-        <v>3573648.5</v>
-      </c>
-      <c r="M17" s="6">
-        <f t="shared" si="2"/>
-        <v>119121.61666666667</v>
-      </c>
-      <c r="N17" s="6">
-        <f t="shared" si="3"/>
-        <v>1501630</v>
-      </c>
-      <c r="O17" s="6">
-        <f t="shared" si="4"/>
-        <v>107259.28571428571</v>
-      </c>
-      <c r="P17" s="6">
-        <f t="shared" si="5"/>
         <v>1225282</v>
       </c>
       <c r="Q17" s="6">
-        <f t="shared" si="6"/>
+        <f>P17/C17</f>
         <v>76580.125</v>
       </c>
     </row>
@@ -8344,7 +8450,7 @@
       <c r="C18" s="5">
         <v>19</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="8">
         <v>45474</v>
       </c>
       <c r="E18" s="6">
@@ -8371,32 +8477,32 @@
         <f>Forecasting_주중!D17</f>
         <v>1555136.25</v>
       </c>
-      <c r="K18" s="13">
+      <c r="K18" s="10">
+        <f>D18</f>
+        <v>45474</v>
+      </c>
+      <c r="L18" s="6">
+        <f>F18</f>
+        <v>3660756.75</v>
+      </c>
+      <c r="M18" s="6">
+        <f>L18/A18</f>
+        <v>118088.92741935483</v>
+      </c>
+      <c r="N18" s="6">
+        <f>H18</f>
+        <v>1410332.25</v>
+      </c>
+      <c r="O18" s="6">
+        <f>N18/B18</f>
+        <v>117527.6875</v>
+      </c>
+      <c r="P18" s="6">
         <f t="shared" si="0"/>
-        <v>45474</v>
-      </c>
-      <c r="L18" s="6">
-        <f t="shared" si="1"/>
-        <v>3660756.75</v>
-      </c>
-      <c r="M18" s="6">
-        <f t="shared" si="2"/>
-        <v>118088.92741935483</v>
-      </c>
-      <c r="N18" s="6">
-        <f t="shared" si="3"/>
-        <v>1410332.25</v>
-      </c>
-      <c r="O18" s="6">
-        <f t="shared" si="4"/>
-        <v>117527.6875</v>
-      </c>
-      <c r="P18" s="6">
-        <f t="shared" si="5"/>
         <v>1555136.25</v>
       </c>
       <c r="Q18" s="6">
-        <f t="shared" si="6"/>
+        <f>P18/C18</f>
         <v>81849.276315789481</v>
       </c>
     </row>
@@ -8410,7 +8516,7 @@
       <c r="C19" s="5">
         <v>17</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="8">
         <v>45505</v>
       </c>
       <c r="E19" s="6">
@@ -8437,32 +8543,32 @@
         <f>Forecasting_주중!D18</f>
         <v>1429345.125</v>
       </c>
-      <c r="K19" s="13">
+      <c r="K19" s="10">
+        <f>D19</f>
+        <v>45505</v>
+      </c>
+      <c r="L19" s="6">
+        <f>F19</f>
+        <v>3604046.75</v>
+      </c>
+      <c r="M19" s="6">
+        <f>L19/A19</f>
+        <v>116259.57258064517</v>
+      </c>
+      <c r="N19" s="6">
+        <f>H19</f>
+        <v>1462989.625</v>
+      </c>
+      <c r="O19" s="6">
+        <f>N19/B19</f>
+        <v>104499.25892857143</v>
+      </c>
+      <c r="P19" s="6">
         <f t="shared" si="0"/>
-        <v>45505</v>
-      </c>
-      <c r="L19" s="6">
-        <f t="shared" si="1"/>
-        <v>3604046.75</v>
-      </c>
-      <c r="M19" s="6">
-        <f t="shared" si="2"/>
-        <v>116259.57258064517</v>
-      </c>
-      <c r="N19" s="6">
-        <f t="shared" si="3"/>
-        <v>1462989.625</v>
-      </c>
-      <c r="O19" s="6">
-        <f t="shared" si="4"/>
-        <v>104499.25892857143</v>
-      </c>
-      <c r="P19" s="6">
-        <f t="shared" si="5"/>
         <v>1429345.125</v>
       </c>
       <c r="Q19" s="6">
-        <f t="shared" si="6"/>
+        <f>P19/C19</f>
         <v>84079.125</v>
       </c>
     </row>
@@ -8476,7 +8582,7 @@
       <c r="C20" s="5">
         <v>17</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="8">
         <v>45536</v>
       </c>
       <c r="E20" s="6">
@@ -8503,32 +8609,32 @@
         <f>Forecasting_주중!D19</f>
         <v>1528997.875</v>
       </c>
-      <c r="K20" s="13">
+      <c r="K20" s="10">
+        <f>D20</f>
+        <v>45536</v>
+      </c>
+      <c r="L20" s="6">
+        <f>F20</f>
+        <v>3650265.25</v>
+      </c>
+      <c r="M20" s="6">
+        <f>L20/A20</f>
+        <v>121675.50833333333</v>
+      </c>
+      <c r="N20" s="6">
+        <f>H20</f>
+        <v>1491501.375</v>
+      </c>
+      <c r="O20" s="6">
+        <f>N20/B20</f>
+        <v>114730.875</v>
+      </c>
+      <c r="P20" s="6">
         <f t="shared" si="0"/>
-        <v>45536</v>
-      </c>
-      <c r="L20" s="6">
-        <f t="shared" si="1"/>
-        <v>3650265.25</v>
-      </c>
-      <c r="M20" s="6">
-        <f t="shared" si="2"/>
-        <v>121675.50833333333</v>
-      </c>
-      <c r="N20" s="6">
-        <f t="shared" si="3"/>
-        <v>1491501.375</v>
-      </c>
-      <c r="O20" s="6">
-        <f t="shared" si="4"/>
-        <v>114730.875</v>
-      </c>
-      <c r="P20" s="6">
-        <f t="shared" si="5"/>
         <v>1528997.875</v>
       </c>
       <c r="Q20" s="6">
-        <f t="shared" si="6"/>
+        <f>P20/C20</f>
         <v>89941.051470588238</v>
       </c>
     </row>
@@ -8542,7 +8648,7 @@
       <c r="C21" s="5">
         <v>19</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="8">
         <v>45566</v>
       </c>
       <c r="E21" s="6">
@@ -8569,32 +8675,32 @@
         <f>Forecasting_주중!D20</f>
         <v>1623493.875</v>
       </c>
-      <c r="K21" s="13">
+      <c r="K21" s="10">
+        <f>D21</f>
+        <v>45566</v>
+      </c>
+      <c r="L21" s="6">
+        <f>F21</f>
+        <v>3759440.5</v>
+      </c>
+      <c r="M21" s="6">
+        <f>L21/A21</f>
+        <v>121272.27419354839</v>
+      </c>
+      <c r="N21" s="6">
+        <f>H21</f>
+        <v>1390290.625</v>
+      </c>
+      <c r="O21" s="6">
+        <f>N21/B21</f>
+        <v>115857.55208333333</v>
+      </c>
+      <c r="P21" s="6">
         <f t="shared" si="0"/>
-        <v>45566</v>
-      </c>
-      <c r="L21" s="6">
-        <f t="shared" si="1"/>
-        <v>3759440.5</v>
-      </c>
-      <c r="M21" s="6">
-        <f t="shared" si="2"/>
-        <v>121272.27419354839</v>
-      </c>
-      <c r="N21" s="6">
-        <f t="shared" si="3"/>
-        <v>1390290.625</v>
-      </c>
-      <c r="O21" s="6">
-        <f t="shared" si="4"/>
-        <v>115857.55208333333</v>
-      </c>
-      <c r="P21" s="6">
-        <f t="shared" si="5"/>
         <v>1623493.875</v>
       </c>
       <c r="Q21" s="6">
-        <f t="shared" si="6"/>
+        <f>P21/C21</f>
         <v>85447.046052631573</v>
       </c>
     </row>
@@ -8608,7 +8714,7 @@
       <c r="C22" s="5">
         <v>16</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="8">
         <v>45597</v>
       </c>
       <c r="E22" s="6">
@@ -8635,32 +8741,32 @@
         <f>Forecasting_주중!D21</f>
         <v>1230325.375</v>
       </c>
-      <c r="K22" s="13">
+      <c r="K22" s="10">
+        <f>D22</f>
+        <v>45597</v>
+      </c>
+      <c r="L22" s="6">
+        <f>F22</f>
+        <v>3788538.5</v>
+      </c>
+      <c r="M22" s="6">
+        <f>L22/A22</f>
+        <v>126284.61666666667</v>
+      </c>
+      <c r="N22" s="6">
+        <f>H22</f>
+        <v>1616724.125</v>
+      </c>
+      <c r="O22" s="6">
+        <f>N22/B22</f>
+        <v>115480.29464285714</v>
+      </c>
+      <c r="P22" s="6">
         <f t="shared" si="0"/>
-        <v>45597</v>
-      </c>
-      <c r="L22" s="6">
-        <f t="shared" si="1"/>
-        <v>3788538.5</v>
-      </c>
-      <c r="M22" s="6">
-        <f t="shared" si="2"/>
-        <v>126284.61666666667</v>
-      </c>
-      <c r="N22" s="6">
-        <f t="shared" si="3"/>
-        <v>1616724.125</v>
-      </c>
-      <c r="O22" s="6">
-        <f t="shared" si="4"/>
-        <v>115480.29464285714</v>
-      </c>
-      <c r="P22" s="6">
-        <f t="shared" si="5"/>
         <v>1230325.375</v>
       </c>
       <c r="Q22" s="6">
-        <f t="shared" si="6"/>
+        <f>P22/C22</f>
         <v>76895.3359375</v>
       </c>
     </row>
@@ -8674,7 +8780,7 @@
       <c r="C23" s="5">
         <v>18</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="8">
         <v>45627</v>
       </c>
       <c r="E23" s="6">
@@ -8701,32 +8807,32 @@
         <f>Forecasting_주중!D22</f>
         <v>1478268</v>
       </c>
-      <c r="K23" s="13">
+      <c r="K23" s="10">
+        <f>D23</f>
+        <v>45627</v>
+      </c>
+      <c r="L23" s="6">
+        <f>F23</f>
+        <v>3839723</v>
+      </c>
+      <c r="M23" s="6">
+        <f>L23/A23</f>
+        <v>123862.03225806452</v>
+      </c>
+      <c r="N23" s="6">
+        <f>H23</f>
+        <v>1654915.625</v>
+      </c>
+      <c r="O23" s="6">
+        <f>N23/B23</f>
+        <v>127301.20192307692</v>
+      </c>
+      <c r="P23" s="6">
         <f t="shared" si="0"/>
-        <v>45627</v>
-      </c>
-      <c r="L23" s="6">
-        <f t="shared" si="1"/>
-        <v>3839723</v>
-      </c>
-      <c r="M23" s="6">
-        <f t="shared" si="2"/>
-        <v>123862.03225806452</v>
-      </c>
-      <c r="N23" s="6">
-        <f t="shared" si="3"/>
-        <v>1654915.625</v>
-      </c>
-      <c r="O23" s="6">
-        <f t="shared" si="4"/>
-        <v>127301.20192307692</v>
-      </c>
-      <c r="P23" s="6">
-        <f t="shared" si="5"/>
         <v>1478268</v>
       </c>
       <c r="Q23" s="6">
-        <f t="shared" si="6"/>
+        <f>P23/C23</f>
         <v>82126</v>
       </c>
     </row>
@@ -8740,7 +8846,7 @@
       <c r="C24" s="5">
         <v>18</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="8">
         <v>45658</v>
       </c>
       <c r="E24" s="6">
@@ -8767,32 +8873,32 @@
         <f>Forecasting_주중!D23</f>
         <v>1665515.5</v>
       </c>
-      <c r="K24" s="13">
+      <c r="K24" s="10">
+        <f>D24</f>
+        <v>45658</v>
+      </c>
+      <c r="L24" s="6">
+        <f>F24</f>
+        <v>3808182.75</v>
+      </c>
+      <c r="M24" s="6">
+        <f>L24/A24</f>
+        <v>122844.60483870968</v>
+      </c>
+      <c r="N24" s="6">
+        <f>H24</f>
+        <v>1273250.25</v>
+      </c>
+      <c r="O24" s="6">
+        <f>N24/B24</f>
+        <v>97942.326923076922</v>
+      </c>
+      <c r="P24" s="6">
         <f t="shared" si="0"/>
-        <v>45658</v>
-      </c>
-      <c r="L24" s="6">
-        <f t="shared" si="1"/>
-        <v>3808182.75</v>
-      </c>
-      <c r="M24" s="6">
-        <f t="shared" si="2"/>
-        <v>122844.60483870968</v>
-      </c>
-      <c r="N24" s="6">
-        <f t="shared" si="3"/>
-        <v>1273250.25</v>
-      </c>
-      <c r="O24" s="6">
-        <f t="shared" si="4"/>
-        <v>97942.326923076922</v>
-      </c>
-      <c r="P24" s="6">
-        <f t="shared" si="5"/>
         <v>1665515.5</v>
       </c>
       <c r="Q24" s="6">
-        <f t="shared" si="6"/>
+        <f>P24/C24</f>
         <v>92528.638888888891</v>
       </c>
     </row>
@@ -8806,7 +8912,7 @@
       <c r="C25" s="5">
         <v>16</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="8">
         <v>45689</v>
       </c>
       <c r="E25" s="6">
@@ -8833,32 +8939,32 @@
         <f>Forecasting_주중!D24</f>
         <v>1218281.375</v>
       </c>
-      <c r="K25" s="13">
+      <c r="K25" s="10">
+        <f>D25</f>
+        <v>45689</v>
+      </c>
+      <c r="L25" s="6">
+        <f>F25</f>
+        <v>3862500.25</v>
+      </c>
+      <c r="M25" s="6">
+        <f>L25/A25</f>
+        <v>137946.4375</v>
+      </c>
+      <c r="N25" s="6">
+        <f>H25</f>
+        <v>1135617.75</v>
+      </c>
+      <c r="O25" s="6">
+        <f>N25/B25</f>
+        <v>94634.8125</v>
+      </c>
+      <c r="P25" s="6">
         <f t="shared" si="0"/>
-        <v>45689</v>
-      </c>
-      <c r="L25" s="6">
-        <f t="shared" si="1"/>
-        <v>3862500.25</v>
-      </c>
-      <c r="M25" s="6">
-        <f t="shared" si="2"/>
-        <v>137946.4375</v>
-      </c>
-      <c r="N25" s="6">
-        <f t="shared" si="3"/>
-        <v>1135617.75</v>
-      </c>
-      <c r="O25" s="6">
-        <f t="shared" si="4"/>
-        <v>94634.8125</v>
-      </c>
-      <c r="P25" s="6">
-        <f t="shared" si="5"/>
         <v>1218281.375</v>
       </c>
       <c r="Q25" s="6">
-        <f t="shared" si="6"/>
+        <f>P25/C25</f>
         <v>76142.5859375</v>
       </c>
     </row>
@@ -8872,7 +8978,7 @@
       <c r="C26" s="5">
         <v>17</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="8">
         <v>45717</v>
       </c>
       <c r="E26" s="6">
@@ -8899,32 +9005,32 @@
         <f>Forecasting_주중!D25</f>
         <v>1279479.375</v>
       </c>
-      <c r="K26" s="13">
+      <c r="K26" s="10">
+        <f>D26</f>
+        <v>45717</v>
+      </c>
+      <c r="L26" s="6">
+        <f>F26</f>
+        <v>3918111.25</v>
+      </c>
+      <c r="M26" s="6">
+        <f>L26/A26</f>
+        <v>126390.68548387097</v>
+      </c>
+      <c r="N26" s="6">
+        <f>H26</f>
+        <v>1280953.125</v>
+      </c>
+      <c r="O26" s="6">
+        <f>N26/B26</f>
+        <v>91496.65178571429</v>
+      </c>
+      <c r="P26" s="6">
         <f t="shared" si="0"/>
-        <v>45717</v>
-      </c>
-      <c r="L26" s="6">
-        <f t="shared" si="1"/>
-        <v>3918111.25</v>
-      </c>
-      <c r="M26" s="6">
-        <f t="shared" si="2"/>
-        <v>126390.68548387097</v>
-      </c>
-      <c r="N26" s="6">
-        <f t="shared" si="3"/>
-        <v>1280953.125</v>
-      </c>
-      <c r="O26" s="6">
-        <f t="shared" si="4"/>
-        <v>91496.65178571429</v>
-      </c>
-      <c r="P26" s="6">
-        <f t="shared" si="5"/>
         <v>1279479.375</v>
       </c>
       <c r="Q26" s="6">
-        <f t="shared" si="6"/>
+        <f>P26/C26</f>
         <v>75263.492647058825</v>
       </c>
     </row>
@@ -8938,7 +9044,7 @@
       <c r="C27" s="5">
         <v>18</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="8">
         <v>45748</v>
       </c>
       <c r="E27" s="6">
@@ -8965,32 +9071,32 @@
         <f>Forecasting_주중!D26</f>
         <v>1453774.125</v>
       </c>
-      <c r="K27" s="13">
+      <c r="K27" s="10">
+        <f>D27</f>
+        <v>45748</v>
+      </c>
+      <c r="L27" s="6">
+        <f>F27</f>
+        <v>4008163</v>
+      </c>
+      <c r="M27" s="6">
+        <f>L27/A27</f>
+        <v>133605.43333333332</v>
+      </c>
+      <c r="N27" s="6">
+        <f>H27</f>
+        <v>1446854</v>
+      </c>
+      <c r="O27" s="6">
+        <f>N27/B27</f>
+        <v>120571.16666666667</v>
+      </c>
+      <c r="P27" s="6">
         <f t="shared" si="0"/>
-        <v>45748</v>
-      </c>
-      <c r="L27" s="6">
-        <f t="shared" si="1"/>
-        <v>4008163</v>
-      </c>
-      <c r="M27" s="6">
-        <f t="shared" si="2"/>
-        <v>133605.43333333332</v>
-      </c>
-      <c r="N27" s="6">
-        <f t="shared" si="3"/>
-        <v>1446854</v>
-      </c>
-      <c r="O27" s="6">
-        <f t="shared" si="4"/>
-        <v>120571.16666666667</v>
-      </c>
-      <c r="P27" s="6">
-        <f t="shared" si="5"/>
         <v>1453774.125</v>
       </c>
       <c r="Q27" s="6">
-        <f t="shared" si="6"/>
+        <f>P27/C27</f>
         <v>80765.229166666672</v>
       </c>
     </row>
@@ -9004,7 +9110,7 @@
       <c r="C28" s="5">
         <v>17</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="8">
         <v>45778</v>
       </c>
       <c r="E28" s="6">
@@ -9031,32 +9137,32 @@
         <f>Forecasting_주중!D27</f>
         <v>1330766.125</v>
       </c>
-      <c r="K28" s="13">
+      <c r="K28" s="10">
+        <f>D28</f>
+        <v>45778</v>
+      </c>
+      <c r="L28" s="6">
+        <f>F28</f>
+        <v>4007408</v>
+      </c>
+      <c r="M28" s="6">
+        <f>L28/A28</f>
+        <v>129271.22580645161</v>
+      </c>
+      <c r="N28" s="6">
+        <f>H28</f>
+        <v>1476447.125</v>
+      </c>
+      <c r="O28" s="6">
+        <f>N28/B28</f>
+        <v>105460.50892857143</v>
+      </c>
+      <c r="P28" s="6">
         <f t="shared" si="0"/>
-        <v>45778</v>
-      </c>
-      <c r="L28" s="6">
-        <f t="shared" si="1"/>
-        <v>4007408</v>
-      </c>
-      <c r="M28" s="6">
-        <f t="shared" si="2"/>
-        <v>129271.22580645161</v>
-      </c>
-      <c r="N28" s="6">
-        <f t="shared" si="3"/>
-        <v>1476447.125</v>
-      </c>
-      <c r="O28" s="6">
-        <f t="shared" si="4"/>
-        <v>105460.50892857143</v>
-      </c>
-      <c r="P28" s="6">
-        <f t="shared" si="5"/>
         <v>1330766.125</v>
       </c>
       <c r="Q28" s="6">
-        <f t="shared" si="6"/>
+        <f>P28/C28</f>
         <v>78280.36029411765</v>
       </c>
     </row>
@@ -9070,7 +9176,7 @@
       <c r="C29" s="5">
         <v>17</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="8">
         <v>45809</v>
       </c>
       <c r="E29" s="6">
@@ -9097,32 +9203,32 @@
         <f>Forecasting_주중!D28</f>
         <v>1281141.75</v>
       </c>
-      <c r="K29" s="13">
+      <c r="K29" s="10">
+        <f>D29</f>
+        <v>45809</v>
+      </c>
+      <c r="L29" s="6">
+        <f>F29</f>
+        <v>4037032.5</v>
+      </c>
+      <c r="M29" s="6">
+        <f>L29/A29</f>
+        <v>134567.75</v>
+      </c>
+      <c r="N29" s="6">
+        <f>H29</f>
+        <v>1549218.875</v>
+      </c>
+      <c r="O29" s="6">
+        <f>N29/B29</f>
+        <v>119170.68269230769</v>
+      </c>
+      <c r="P29" s="6">
         <f t="shared" si="0"/>
-        <v>45809</v>
-      </c>
-      <c r="L29" s="6">
-        <f t="shared" si="1"/>
-        <v>4037032.5</v>
-      </c>
-      <c r="M29" s="6">
-        <f t="shared" si="2"/>
-        <v>134567.75</v>
-      </c>
-      <c r="N29" s="6">
-        <f t="shared" si="3"/>
-        <v>1549218.875</v>
-      </c>
-      <c r="O29" s="6">
-        <f t="shared" si="4"/>
-        <v>119170.68269230769</v>
-      </c>
-      <c r="P29" s="6">
-        <f t="shared" si="5"/>
         <v>1281141.75</v>
       </c>
       <c r="Q29" s="6">
-        <f t="shared" si="6"/>
+        <f>P29/C29</f>
         <v>75361.279411764699</v>
       </c>
     </row>
@@ -9136,7 +9242,7 @@
       <c r="C30" s="5">
         <v>19</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="8">
         <v>45839</v>
       </c>
       <c r="E30" s="6">
@@ -9163,32 +9269,32 @@
         <f>Forecasting_주중!D29</f>
         <v>1589247.375</v>
       </c>
-      <c r="K30" s="13">
+      <c r="K30" s="10">
+        <f>D30</f>
+        <v>45839</v>
+      </c>
+      <c r="L30" s="6">
+        <f>F30</f>
+        <v>4060179.25</v>
+      </c>
+      <c r="M30" s="6">
+        <f>L30/A30</f>
+        <v>130973.52419354839</v>
+      </c>
+      <c r="N30" s="6">
+        <f>H30</f>
+        <v>1471571.875</v>
+      </c>
+      <c r="O30" s="6">
+        <f>N30/B30</f>
+        <v>122630.98958333333</v>
+      </c>
+      <c r="P30" s="6">
         <f t="shared" si="0"/>
-        <v>45839</v>
-      </c>
-      <c r="L30" s="6">
-        <f t="shared" si="1"/>
-        <v>4060179.25</v>
-      </c>
-      <c r="M30" s="6">
-        <f t="shared" si="2"/>
-        <v>130973.52419354839</v>
-      </c>
-      <c r="N30" s="6">
-        <f t="shared" si="3"/>
-        <v>1471571.875</v>
-      </c>
-      <c r="O30" s="6">
-        <f t="shared" si="4"/>
-        <v>122630.98958333333</v>
-      </c>
-      <c r="P30" s="6">
-        <f t="shared" si="5"/>
         <v>1589247.375</v>
       </c>
       <c r="Q30" s="6">
-        <f t="shared" si="6"/>
+        <f>P30/C30</f>
         <v>83644.598684210519</v>
       </c>
     </row>
@@ -9202,7 +9308,7 @@
       <c r="C31" s="5">
         <v>16</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="8">
         <v>45870</v>
       </c>
       <c r="E31" s="6">
@@ -9229,32 +9335,32 @@
         <f>Forecasting_주중!D30</f>
         <v>1261300.375</v>
       </c>
-      <c r="K31" s="13">
+      <c r="K31" s="10">
+        <f>D31</f>
+        <v>45870</v>
+      </c>
+      <c r="L31" s="6">
+        <f>F31</f>
+        <v>4097172.25</v>
+      </c>
+      <c r="M31" s="6">
+        <f>L31/A31</f>
+        <v>132166.84677419355</v>
+      </c>
+      <c r="N31" s="6">
+        <f>H31</f>
+        <v>1720300.375</v>
+      </c>
+      <c r="O31" s="6">
+        <f>N31/B31</f>
+        <v>114686.69166666667</v>
+      </c>
+      <c r="P31" s="6">
         <f t="shared" si="0"/>
-        <v>45870</v>
-      </c>
-      <c r="L31" s="6">
-        <f t="shared" si="1"/>
-        <v>4097172.25</v>
-      </c>
-      <c r="M31" s="6">
-        <f t="shared" si="2"/>
-        <v>132166.84677419355</v>
-      </c>
-      <c r="N31" s="6">
-        <f t="shared" si="3"/>
-        <v>1720300.375</v>
-      </c>
-      <c r="O31" s="6">
-        <f t="shared" si="4"/>
-        <v>114686.69166666667</v>
-      </c>
-      <c r="P31" s="6">
-        <f t="shared" si="5"/>
         <v>1261300.375</v>
       </c>
       <c r="Q31" s="6">
-        <f t="shared" si="6"/>
+        <f>P31/C31</f>
         <v>78831.2734375</v>
       </c>
     </row>
@@ -9268,7 +9374,7 @@
       <c r="C32" s="5">
         <v>18</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="8">
         <v>45901</v>
       </c>
       <c r="E32" s="6">
@@ -9295,32 +9401,32 @@
         <f>Forecasting_주중!D31</f>
         <v>1381939</v>
       </c>
-      <c r="K32" s="13">
+      <c r="K32" s="10">
+        <f>D32</f>
+        <v>45901</v>
+      </c>
+      <c r="L32" s="6">
+        <f>F32</f>
+        <v>4099446.75</v>
+      </c>
+      <c r="M32" s="6">
+        <f>L32/A32</f>
+        <v>136648.22500000001</v>
+      </c>
+      <c r="N32" s="6">
+        <f>H32</f>
+        <v>1404066.25</v>
+      </c>
+      <c r="O32" s="6">
+        <f>N32/B32</f>
+        <v>117005.52083333333</v>
+      </c>
+      <c r="P32" s="6">
         <f t="shared" si="0"/>
-        <v>45901</v>
-      </c>
-      <c r="L32" s="6">
-        <f t="shared" si="1"/>
-        <v>4099446.75</v>
-      </c>
-      <c r="M32" s="6">
-        <f t="shared" si="2"/>
-        <v>136648.22500000001</v>
-      </c>
-      <c r="N32" s="6">
-        <f t="shared" si="3"/>
-        <v>1404066.25</v>
-      </c>
-      <c r="O32" s="6">
-        <f t="shared" si="4"/>
-        <v>117005.52083333333</v>
-      </c>
-      <c r="P32" s="6">
-        <f t="shared" si="5"/>
         <v>1381939</v>
       </c>
       <c r="Q32" s="6">
-        <f t="shared" si="6"/>
+        <f>P32/C32</f>
         <v>76774.388888888891</v>
       </c>
     </row>
@@ -9334,7 +9440,7 @@
       <c r="C33" s="5">
         <v>18</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="8">
         <v>45931</v>
       </c>
       <c r="E33" s="6">
@@ -9361,32 +9467,32 @@
         <f>Forecasting_주중!D32</f>
         <v>1546653.875</v>
       </c>
-      <c r="K33" s="13">
+      <c r="K33" s="10">
+        <f>D33</f>
+        <v>45931</v>
+      </c>
+      <c r="L33" s="6">
+        <f>F33</f>
+        <v>4081235</v>
+      </c>
+      <c r="M33" s="6">
+        <f>L33/A33</f>
+        <v>131652.74193548388</v>
+      </c>
+      <c r="N33" s="6">
+        <f>H33</f>
+        <v>1465808.5</v>
+      </c>
+      <c r="O33" s="6">
+        <f>N33/B33</f>
+        <v>112754.5</v>
+      </c>
+      <c r="P33" s="6">
         <f t="shared" si="0"/>
-        <v>45931</v>
-      </c>
-      <c r="L33" s="6">
-        <f t="shared" si="1"/>
-        <v>4081235</v>
-      </c>
-      <c r="M33" s="6">
-        <f t="shared" si="2"/>
-        <v>131652.74193548388</v>
-      </c>
-      <c r="N33" s="6">
-        <f t="shared" si="3"/>
-        <v>1465808.5</v>
-      </c>
-      <c r="O33" s="6">
-        <f t="shared" si="4"/>
-        <v>112754.5</v>
-      </c>
-      <c r="P33" s="6">
-        <f t="shared" si="5"/>
         <v>1546653.875</v>
       </c>
       <c r="Q33" s="6">
-        <f t="shared" si="6"/>
+        <f>P33/C33</f>
         <v>85925.215277777781</v>
       </c>
     </row>
@@ -9400,7 +9506,7 @@
       <c r="C34" s="5">
         <v>16</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="8">
         <v>45962</v>
       </c>
       <c r="E34" s="6">
@@ -9427,32 +9533,32 @@
         <f>Forecasting_주중!D33</f>
         <v>1274487.125</v>
       </c>
-      <c r="K34" s="13">
+      <c r="K34" s="10">
+        <f>D34</f>
+        <v>45962</v>
+      </c>
+      <c r="L34" s="6">
+        <f>F34</f>
+        <v>4114394.75</v>
+      </c>
+      <c r="M34" s="6">
+        <f>L34/A34</f>
+        <v>137146.49166666667</v>
+      </c>
+      <c r="N34" s="6">
+        <f>H34</f>
+        <v>1900216.5</v>
+      </c>
+      <c r="O34" s="6">
+        <f>N34/B34</f>
+        <v>135729.75</v>
+      </c>
+      <c r="P34" s="6">
         <f t="shared" si="0"/>
-        <v>45962</v>
-      </c>
-      <c r="L34" s="6">
-        <f t="shared" si="1"/>
-        <v>4114394.75</v>
-      </c>
-      <c r="M34" s="6">
-        <f t="shared" si="2"/>
-        <v>137146.49166666667</v>
-      </c>
-      <c r="N34" s="6">
-        <f t="shared" si="3"/>
-        <v>1900216.5</v>
-      </c>
-      <c r="O34" s="6">
-        <f t="shared" si="4"/>
-        <v>135729.75</v>
-      </c>
-      <c r="P34" s="6">
-        <f t="shared" si="5"/>
         <v>1274487.125</v>
       </c>
       <c r="Q34" s="6">
-        <f t="shared" si="6"/>
+        <f>P34/C34</f>
         <v>79655.4453125</v>
       </c>
     </row>
@@ -9466,7 +9572,7 @@
       <c r="C35" s="5">
         <v>19</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="8">
         <v>45992</v>
       </c>
       <c r="E35" s="6">
@@ -9493,37 +9599,38 @@
         <f>Forecasting_주중!D34</f>
         <v>1567245</v>
       </c>
-      <c r="K35" s="13">
+      <c r="K35" s="10">
+        <f>D35</f>
+        <v>45992</v>
+      </c>
+      <c r="L35" s="6">
+        <f>F35</f>
+        <v>4202335.5</v>
+      </c>
+      <c r="M35" s="6">
+        <f>L35/A35</f>
+        <v>135559.20967741936</v>
+      </c>
+      <c r="N35" s="6">
+        <f>H35</f>
+        <v>1650248</v>
+      </c>
+      <c r="O35" s="6">
+        <f>N35/B35</f>
+        <v>137520.66666666666</v>
+      </c>
+      <c r="P35" s="6">
         <f t="shared" si="0"/>
-        <v>45992</v>
-      </c>
-      <c r="L35" s="6">
-        <f t="shared" si="1"/>
-        <v>4202335.5</v>
-      </c>
-      <c r="M35" s="6">
-        <f t="shared" si="2"/>
-        <v>135559.20967741936</v>
-      </c>
-      <c r="N35" s="6">
-        <f t="shared" si="3"/>
-        <v>1650248</v>
-      </c>
-      <c r="O35" s="6">
-        <f t="shared" si="4"/>
-        <v>137520.66666666666</v>
-      </c>
-      <c r="P35" s="6">
-        <f t="shared" si="5"/>
         <v>1567245</v>
       </c>
       <c r="Q35" s="6">
-        <f t="shared" si="6"/>
+        <f>P35/C35</f>
         <v>82486.578947368427</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="D1:D2"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="P13:Q13"/>
@@ -9531,9 +9638,934 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
-    <mergeCell ref="D1:D2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2559B256-76CA-457E-A007-521321253CFB}">
+  <dimension ref="A1:U35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="20.4140625" style="9" customWidth="1"/>
+    <col min="3" max="4" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.58203125" customWidth="1"/>
+    <col min="6" max="6" width="10.58203125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.58203125" customWidth="1"/>
+    <col min="10" max="10" width="10.58203125" style="16" customWidth="1"/>
+    <col min="11" max="12" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.58203125" customWidth="1"/>
+    <col min="14" max="14" width="10.58203125" style="16" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" customWidth="1"/>
+    <col min="16" max="16" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="10.58203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="7"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A3" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="6">
+        <f>Forecasting_전체!C2</f>
+        <v>3281372</v>
+      </c>
+      <c r="D3" s="6">
+        <f>Forecasting_전체!D2</f>
+        <v>3209957.25</v>
+      </c>
+      <c r="E3" s="6">
+        <f>D3-C3</f>
+        <v>-71414.75</v>
+      </c>
+      <c r="F3" s="16">
+        <f>E3/C3</f>
+        <v>-2.176368604352082E-2</v>
+      </c>
+      <c r="G3" s="6">
+        <f>Forecasting_주말!C2</f>
+        <v>1831775</v>
+      </c>
+      <c r="H3" s="6">
+        <f>Forecasting_주말!D2</f>
+        <v>1877192</v>
+      </c>
+      <c r="I3" s="6">
+        <f>H3-G3</f>
+        <v>45417</v>
+      </c>
+      <c r="J3" s="16">
+        <f>I3/G3</f>
+        <v>2.4793983977289786E-2</v>
+      </c>
+      <c r="K3" s="6">
+        <f>Forecasting_주중!C2</f>
+        <v>1449597</v>
+      </c>
+      <c r="L3" s="6">
+        <f>Forecasting_주중!D2</f>
+        <v>1328690.625</v>
+      </c>
+      <c r="M3" s="6">
+        <f>L3-K3</f>
+        <v>-120906.375</v>
+      </c>
+      <c r="N3" s="16">
+        <f>M3/K3</f>
+        <v>-8.3406888259288617E-2</v>
+      </c>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="6">
+        <f>Forecasting_전체!C3</f>
+        <v>3460800</v>
+      </c>
+      <c r="D4" s="6">
+        <f>Forecasting_전체!D3</f>
+        <v>3232945.5</v>
+      </c>
+      <c r="E4" s="6">
+        <f t="shared" ref="E4:E14" si="0">D4-C4</f>
+        <v>-227854.5</v>
+      </c>
+      <c r="F4" s="16">
+        <f t="shared" ref="F4:F14" si="1">E4/C4</f>
+        <v>-6.5838678918169205E-2</v>
+      </c>
+      <c r="G4" s="6">
+        <f>Forecasting_주말!C3</f>
+        <v>1611120</v>
+      </c>
+      <c r="H4" s="6">
+        <f>Forecasting_주말!D3</f>
+        <v>1645452.25</v>
+      </c>
+      <c r="I4" s="6">
+        <f t="shared" ref="I4:I14" si="2">H4-G4</f>
+        <v>34332.25</v>
+      </c>
+      <c r="J4" s="16">
+        <f t="shared" ref="J4:J14" si="3">I4/G4</f>
+        <v>2.1309554843835343E-2</v>
+      </c>
+      <c r="K4" s="6">
+        <f>Forecasting_주중!C3</f>
+        <v>1849680</v>
+      </c>
+      <c r="L4" s="6">
+        <f>Forecasting_주중!D3</f>
+        <v>1681071.5</v>
+      </c>
+      <c r="M4" s="6">
+        <f t="shared" ref="M4:M14" si="4">L4-K4</f>
+        <v>-168608.5</v>
+      </c>
+      <c r="N4" s="16">
+        <f t="shared" ref="N4:N14" si="5">M4/K4</f>
+        <v>-9.1155497167077548E-2</v>
+      </c>
+      <c r="O4" s="6"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="6">
+        <f>Forecasting_전체!C4</f>
+        <v>3274361</v>
+      </c>
+      <c r="D5" s="6">
+        <f>Forecasting_전체!D4</f>
+        <v>3186083.75</v>
+      </c>
+      <c r="E5" s="6">
+        <f t="shared" si="0"/>
+        <v>-88277.25</v>
+      </c>
+      <c r="F5" s="16">
+        <f t="shared" si="1"/>
+        <v>-2.6960145811656077E-2</v>
+      </c>
+      <c r="G5" s="6">
+        <f>Forecasting_주말!C4</f>
+        <v>1678704</v>
+      </c>
+      <c r="H5" s="6">
+        <f>Forecasting_주말!D4</f>
+        <v>1685881.75</v>
+      </c>
+      <c r="I5" s="6">
+        <f t="shared" si="2"/>
+        <v>7177.75</v>
+      </c>
+      <c r="J5" s="16">
+        <f t="shared" si="3"/>
+        <v>4.275768688226155E-3</v>
+      </c>
+      <c r="K5" s="6">
+        <f>Forecasting_주중!C4</f>
+        <v>1595657</v>
+      </c>
+      <c r="L5" s="6">
+        <f>Forecasting_주중!D4</f>
+        <v>1436250.125</v>
+      </c>
+      <c r="M5" s="6">
+        <f t="shared" si="4"/>
+        <v>-159406.875</v>
+      </c>
+      <c r="N5" s="16">
+        <f t="shared" si="5"/>
+        <v>-9.9900464197506103E-2</v>
+      </c>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="6">
+        <f>Forecasting_전체!C5</f>
+        <v>3279768</v>
+      </c>
+      <c r="D6" s="6">
+        <f>Forecasting_전체!D5</f>
+        <v>3169345.25</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
+        <v>-110422.75</v>
+      </c>
+      <c r="F6" s="16">
+        <f t="shared" si="1"/>
+        <v>-3.3667853945766893E-2</v>
+      </c>
+      <c r="G6" s="6">
+        <f>Forecasting_주말!C5</f>
+        <v>1688805</v>
+      </c>
+      <c r="H6" s="6">
+        <f>Forecasting_주말!D5</f>
+        <v>1560501.25</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" si="2"/>
+        <v>-128303.75</v>
+      </c>
+      <c r="J6" s="16">
+        <f t="shared" si="3"/>
+        <v>-7.5973099321709731E-2</v>
+      </c>
+      <c r="K6" s="6">
+        <f>Forecasting_주중!C5</f>
+        <v>1590963</v>
+      </c>
+      <c r="L6" s="6">
+        <f>Forecasting_주중!D5</f>
+        <v>1518463.375</v>
+      </c>
+      <c r="M6" s="6">
+        <f t="shared" si="4"/>
+        <v>-72499.625</v>
+      </c>
+      <c r="N6" s="16">
+        <f t="shared" si="5"/>
+        <v>-4.5569648697047008E-2</v>
+      </c>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="6">
+        <f>Forecasting_전체!C6</f>
+        <v>3352224</v>
+      </c>
+      <c r="D7" s="6">
+        <f>Forecasting_전체!D6</f>
+        <v>3189311.5</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" si="0"/>
+        <v>-162912.5</v>
+      </c>
+      <c r="F7" s="16">
+        <f t="shared" si="1"/>
+        <v>-4.8598333524251365E-2</v>
+      </c>
+      <c r="G7" s="6">
+        <f>Forecasting_주말!C6</f>
+        <v>1519750</v>
+      </c>
+      <c r="H7" s="6">
+        <f>Forecasting_주말!D6</f>
+        <v>1497865.5</v>
+      </c>
+      <c r="I7" s="6">
+        <f t="shared" si="2"/>
+        <v>-21884.5</v>
+      </c>
+      <c r="J7" s="16">
+        <f t="shared" si="3"/>
+        <v>-1.4400065800296102E-2</v>
+      </c>
+      <c r="K7" s="6">
+        <f>Forecasting_주중!C6</f>
+        <v>1832474</v>
+      </c>
+      <c r="L7" s="6">
+        <f>Forecasting_주중!D6</f>
+        <v>1693508</v>
+      </c>
+      <c r="M7" s="6">
+        <f t="shared" si="4"/>
+        <v>-138966</v>
+      </c>
+      <c r="N7" s="16">
+        <f t="shared" si="5"/>
+        <v>-7.5835182381850982E-2</v>
+      </c>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A8" s="17"/>
+      <c r="B8" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="6">
+        <f>Forecasting_전체!C7</f>
+        <v>3291100</v>
+      </c>
+      <c r="D8" s="6">
+        <f>Forecasting_전체!D7</f>
+        <v>3298762.75</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" si="0"/>
+        <v>7662.75</v>
+      </c>
+      <c r="F8" s="16">
+        <f t="shared" si="1"/>
+        <v>2.3283248761812158E-3</v>
+      </c>
+      <c r="G8" s="6">
+        <f>Forecasting_주말!C7</f>
+        <v>1730278</v>
+      </c>
+      <c r="H8" s="6">
+        <f>Forecasting_주말!D7</f>
+        <v>1518906.875</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" si="2"/>
+        <v>-211371.125</v>
+      </c>
+      <c r="J8" s="16">
+        <f t="shared" si="3"/>
+        <v>-0.12216021067134876</v>
+      </c>
+      <c r="K8" s="6">
+        <f>Forecasting_주중!C7</f>
+        <v>1560822</v>
+      </c>
+      <c r="L8" s="6">
+        <f>Forecasting_주중!D7</f>
+        <v>1492780</v>
+      </c>
+      <c r="M8" s="6">
+        <f t="shared" si="4"/>
+        <v>-68042</v>
+      </c>
+      <c r="N8" s="16">
+        <f t="shared" si="5"/>
+        <v>-4.3593696142160993E-2</v>
+      </c>
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="6">
+        <f>Forecasting_전체!C8</f>
+        <v>3643417</v>
+      </c>
+      <c r="D9" s="6">
+        <f>Forecasting_전체!D8</f>
+        <v>3367579.25</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="0"/>
+        <v>-275837.75</v>
+      </c>
+      <c r="F9" s="16">
+        <f t="shared" si="1"/>
+        <v>-7.570853130454186E-2</v>
+      </c>
+      <c r="G9" s="6">
+        <f>Forecasting_주말!C8</f>
+        <v>1823506</v>
+      </c>
+      <c r="H9" s="6">
+        <f>Forecasting_주말!D8</f>
+        <v>1876423.5</v>
+      </c>
+      <c r="I9" s="6">
+        <f t="shared" si="2"/>
+        <v>52917.5</v>
+      </c>
+      <c r="J9" s="16">
+        <f t="shared" si="3"/>
+        <v>2.9019646768368188E-2</v>
+      </c>
+      <c r="K9" s="6">
+        <f>Forecasting_주중!C8</f>
+        <v>1819911</v>
+      </c>
+      <c r="L9" s="6">
+        <f>Forecasting_주중!D8</f>
+        <v>1780575.75</v>
+      </c>
+      <c r="M9" s="6">
+        <f t="shared" si="4"/>
+        <v>-39335.25</v>
+      </c>
+      <c r="N9" s="16">
+        <f t="shared" si="5"/>
+        <v>-2.1613831665394625E-2</v>
+      </c>
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="6">
+        <f>Forecasting_전체!C9</f>
+        <v>3547176</v>
+      </c>
+      <c r="D10" s="6">
+        <f>Forecasting_전체!D9</f>
+        <v>3385911</v>
+      </c>
+      <c r="E10" s="6">
+        <f t="shared" si="0"/>
+        <v>-161265</v>
+      </c>
+      <c r="F10" s="16">
+        <f t="shared" si="1"/>
+        <v>-4.5462926000852506E-2</v>
+      </c>
+      <c r="G10" s="6">
+        <f>Forecasting_주말!C9</f>
+        <v>1776440</v>
+      </c>
+      <c r="H10" s="6">
+        <f>Forecasting_주말!D9</f>
+        <v>1794702.5</v>
+      </c>
+      <c r="I10" s="6">
+        <f t="shared" si="2"/>
+        <v>18262.5</v>
+      </c>
+      <c r="J10" s="16">
+        <f t="shared" si="3"/>
+        <v>1.0280392245164487E-2</v>
+      </c>
+      <c r="K10" s="6">
+        <f>Forecasting_주중!C9</f>
+        <v>1770736</v>
+      </c>
+      <c r="L10" s="6">
+        <f>Forecasting_주중!D9</f>
+        <v>1622337</v>
+      </c>
+      <c r="M10" s="6">
+        <f t="shared" si="4"/>
+        <v>-148399</v>
+      </c>
+      <c r="N10" s="16">
+        <f t="shared" si="5"/>
+        <v>-8.3806394629125966E-2</v>
+      </c>
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="6">
+        <f>Forecasting_전체!C10</f>
+        <v>3647548</v>
+      </c>
+      <c r="D11" s="6">
+        <f>Forecasting_전체!D10</f>
+        <v>3357167.25</v>
+      </c>
+      <c r="E11" s="6">
+        <f t="shared" si="0"/>
+        <v>-290380.75</v>
+      </c>
+      <c r="F11" s="16">
+        <f t="shared" si="1"/>
+        <v>-7.9609850233636398E-2</v>
+      </c>
+      <c r="G11" s="6">
+        <f>Forecasting_주말!C10</f>
+        <v>2030693</v>
+      </c>
+      <c r="H11" s="6">
+        <f>Forecasting_주말!D10</f>
+        <v>2087307.5</v>
+      </c>
+      <c r="I11" s="6">
+        <f t="shared" si="2"/>
+        <v>56614.5</v>
+      </c>
+      <c r="J11" s="16">
+        <f t="shared" si="3"/>
+        <v>2.787939880622034E-2</v>
+      </c>
+      <c r="K11" s="6">
+        <f>Forecasting_주중!C10</f>
+        <v>1616855</v>
+      </c>
+      <c r="L11" s="6">
+        <f>Forecasting_주중!D10</f>
+        <v>1537221.625</v>
+      </c>
+      <c r="M11" s="6">
+        <f t="shared" si="4"/>
+        <v>-79633.375</v>
+      </c>
+      <c r="N11" s="16">
+        <f t="shared" si="5"/>
+        <v>-4.9252020125490535E-2</v>
+      </c>
+      <c r="O11" s="6"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A12" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="6">
+        <f>Forecasting_전체!C11</f>
+        <v>3318669</v>
+      </c>
+      <c r="D12" s="6">
+        <f>Forecasting_전체!D11</f>
+        <v>3326395.75</v>
+      </c>
+      <c r="E12" s="6">
+        <f t="shared" si="0"/>
+        <v>7726.75</v>
+      </c>
+      <c r="F12" s="16">
+        <f t="shared" si="1"/>
+        <v>2.3282677483051186E-3</v>
+      </c>
+      <c r="G12" s="6">
+        <f>Forecasting_주말!C11</f>
+        <v>1512083</v>
+      </c>
+      <c r="H12" s="6">
+        <f>Forecasting_주말!D11</f>
+        <v>1318070.75</v>
+      </c>
+      <c r="I12" s="6">
+        <f t="shared" si="2"/>
+        <v>-194012.25</v>
+      </c>
+      <c r="J12" s="16">
+        <f t="shared" si="3"/>
+        <v>-0.12830793679976563</v>
+      </c>
+      <c r="K12" s="6">
+        <f>Forecasting_주중!C11</f>
+        <v>1806586</v>
+      </c>
+      <c r="L12" s="6">
+        <f>Forecasting_주중!D11</f>
+        <v>1665005.5</v>
+      </c>
+      <c r="M12" s="6">
+        <f t="shared" si="4"/>
+        <v>-141580.5</v>
+      </c>
+      <c r="N12" s="16">
+        <f t="shared" si="5"/>
+        <v>-7.8369089542374398E-2</v>
+      </c>
+      <c r="O12" s="6"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A13" s="17"/>
+      <c r="B13" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="6">
+        <f>Forecasting_전체!C12</f>
+        <v>3464111</v>
+      </c>
+      <c r="D13" s="6">
+        <f>Forecasting_전체!D12</f>
+        <v>3274700</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" si="0"/>
+        <v>-189411</v>
+      </c>
+      <c r="F13" s="16">
+        <f t="shared" si="1"/>
+        <v>-5.4678097786127526E-2</v>
+      </c>
+      <c r="G13" s="6">
+        <f>Forecasting_주말!C12</f>
+        <v>1566682</v>
+      </c>
+      <c r="H13" s="6">
+        <f>Forecasting_주말!D12</f>
+        <v>1433868.75</v>
+      </c>
+      <c r="I13" s="6">
+        <f t="shared" si="2"/>
+        <v>-132813.25</v>
+      </c>
+      <c r="J13" s="16">
+        <f t="shared" si="3"/>
+        <v>-8.477358519469809E-2</v>
+      </c>
+      <c r="K13" s="6">
+        <f>Forecasting_주중!C12</f>
+        <v>1897429</v>
+      </c>
+      <c r="L13" s="6">
+        <f>Forecasting_주중!D12</f>
+        <v>1566386.25</v>
+      </c>
+      <c r="M13" s="6">
+        <f t="shared" si="4"/>
+        <v>-331042.75</v>
+      </c>
+      <c r="N13" s="16">
+        <f t="shared" si="5"/>
+        <v>-0.17446911057014519</v>
+      </c>
+      <c r="O13" s="12"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A14" s="17"/>
+      <c r="B14" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="6">
+        <f>Forecasting_전체!C13</f>
+        <v>3473501</v>
+      </c>
+      <c r="D14" s="6">
+        <f>Forecasting_전체!D13</f>
+        <v>3403701.5</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="0"/>
+        <v>-69799.5</v>
+      </c>
+      <c r="F14" s="16">
+        <f t="shared" si="1"/>
+        <v>-2.0094855305929089E-2</v>
+      </c>
+      <c r="G14" s="6">
+        <f>Forecasting_주말!C13</f>
+        <v>2009616</v>
+      </c>
+      <c r="H14" s="6">
+        <f>Forecasting_주말!D13</f>
+        <v>1678476.875</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" si="2"/>
+        <v>-331139.125</v>
+      </c>
+      <c r="J14" s="16">
+        <f t="shared" si="3"/>
+        <v>-0.16477731317823902</v>
+      </c>
+      <c r="K14" s="6">
+        <f>Forecasting_주중!C13</f>
+        <v>1463885</v>
+      </c>
+      <c r="L14" s="6">
+        <f>Forecasting_주중!D13</f>
+        <v>1194498</v>
+      </c>
+      <c r="M14" s="6">
+        <f t="shared" si="4"/>
+        <v>-269387</v>
+      </c>
+      <c r="N14" s="16">
+        <f t="shared" si="5"/>
+        <v>-0.18402196893881692</v>
+      </c>
+      <c r="O14" s="12"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A15" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="15">
+        <f>AVERAGE(C3:C14)</f>
+        <v>3419503.9166666665</v>
+      </c>
+      <c r="D15" s="15">
+        <f>AVERAGE(D3:D14)</f>
+        <v>3283488.3958333335</v>
+      </c>
+      <c r="E15" s="15">
+        <f>AVERAGE(E3:E14)</f>
+        <v>-136015.52083333334</v>
+      </c>
+      <c r="F15" s="16">
+        <f>AVERAGE(F3:F14)</f>
+        <v>-3.8977197187497113E-2</v>
+      </c>
+      <c r="G15" s="15">
+        <f>AVERAGE(G3:G14)</f>
+        <v>1731621</v>
+      </c>
+      <c r="H15" s="15">
+        <f>AVERAGE(H3:H14)</f>
+        <v>1664554.125</v>
+      </c>
+      <c r="I15" s="15">
+        <f>AVERAGE(I3:I14)</f>
+        <v>-67066.875</v>
+      </c>
+      <c r="J15" s="16">
+        <f>AVERAGE(J3:J14)</f>
+        <v>-3.9402788803079417E-2</v>
+      </c>
+      <c r="K15" s="15">
+        <f>AVERAGE(K3:K14)</f>
+        <v>1687882.9166666667</v>
+      </c>
+      <c r="L15" s="15">
+        <f>AVERAGE(L3:L14)</f>
+        <v>1543065.6458333333</v>
+      </c>
+      <c r="M15" s="15">
+        <f>AVERAGE(M3:M14)</f>
+        <v>-144817.27083333334</v>
+      </c>
+      <c r="N15" s="16">
+        <f>AVERAGE(N3:N14)</f>
+        <v>-8.59161493596899E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="B16"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B17"/>
+      <c r="F17"/>
+      <c r="J17"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B18"/>
+      <c r="F18"/>
+      <c r="J18"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B19"/>
+      <c r="F19"/>
+      <c r="J19"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B20"/>
+      <c r="F20"/>
+      <c r="J20"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B21"/>
+      <c r="F21"/>
+      <c r="J21"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B22"/>
+      <c r="F22"/>
+      <c r="J22"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B23"/>
+      <c r="F23"/>
+      <c r="J23"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B24"/>
+      <c r="F24"/>
+      <c r="J24"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B25"/>
+      <c r="F25"/>
+      <c r="J25"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B26"/>
+      <c r="F26"/>
+      <c r="J26"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B27"/>
+      <c r="F27"/>
+      <c r="J27"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B28"/>
+      <c r="F28"/>
+      <c r="J28"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B29"/>
+      <c r="F29"/>
+      <c r="J29"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B30"/>
+      <c r="F30"/>
+      <c r="J30"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B31"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B32"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B33"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B34"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:Q13"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Project-KTXForecasting/Result/Shared_20240703/Forecasting_경부선.xlsx
+++ b/Project-KTXForecasting/Result/Shared_20240703/Forecasting_경부선.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEIA]\[DEBA]\Project-KTXForecasting\Result\Shared_20240703\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8674EC9-369D-4080-8D57-506EBECAD26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B617B42D-4C3A-4BA8-87AF-284257F71AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19296" yWindow="-84" windowWidth="19392" windowHeight="11472" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Performance_전체" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="Performance_주중" sheetId="5" r:id="rId5"/>
     <sheet name="Forecasting_주중" sheetId="6" r:id="rId6"/>
     <sheet name="수요예측정리" sheetId="7" r:id="rId7"/>
-    <sheet name="예측오차율" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="32">
   <si>
     <t>MSE</t>
   </si>
@@ -143,81 +142,6 @@
     <t>Time</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
-  <si>
-    <t>오차</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오차율</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4월</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5월</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6월</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7월</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8월</t>
-  </si>
-  <si>
-    <t>9월</t>
-  </si>
-  <si>
-    <t>10월</t>
-  </si>
-  <si>
-    <t>11월</t>
-  </si>
-  <si>
-    <t>12월</t>
-  </si>
-  <si>
-    <t>1월</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2월</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3월</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023년</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024년</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>실적치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>예측치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>평균오차 및 오차율</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
@@ -230,7 +154,7 @@
     <numFmt numFmtId="178" formatCode="0.0000"/>
     <numFmt numFmtId="179" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,15 +182,6 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -311,16 +226,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -342,38 +254,20 @@
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="백분율" xfId="2" builtinId="5"/>
+  <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1441,18 +1335,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="15" max="15" width="9.58203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.58203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.58203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1475,7 +1369,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1507,7 +1401,7 @@
       <c r="R2" s="3"/>
       <c r="S2" s="4"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1539,7 +1433,7 @@
       <c r="R3" s="3"/>
       <c r="S3" s="4"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1571,7 +1465,7 @@
       <c r="R4" s="3"/>
       <c r="S4" s="4"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1603,7 +1497,7 @@
       <c r="R5" s="3"/>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1635,7 +1529,7 @@
       <c r="R6" s="3"/>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1667,7 +1561,7 @@
       <c r="R7" s="3"/>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1699,7 +1593,7 @@
       <c r="R8" s="3"/>
       <c r="S8" s="4"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1731,7 +1625,7 @@
       <c r="R9" s="3"/>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1763,7 +1657,7 @@
       <c r="R10" s="3"/>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1810,12 +1704,12 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="19" max="24" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="24" width="10.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -1856,7 +1750,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>45017</v>
       </c>
@@ -1897,7 +1791,7 @@
         <v>3249067.5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>45047</v>
       </c>
@@ -1938,7 +1832,7 @@
         <v>3073000</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>45078</v>
       </c>
@@ -1979,7 +1873,7 @@
         <v>2700851</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>45108</v>
       </c>
@@ -2020,7 +1914,7 @@
         <v>2764170.75</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>45139</v>
       </c>
@@ -2061,7 +1955,7 @@
         <v>2719659</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>45170</v>
       </c>
@@ -2102,7 +1996,7 @@
         <v>2511056.5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>45200</v>
       </c>
@@ -2143,7 +2037,7 @@
         <v>2716036.5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>45231</v>
       </c>
@@ -2184,7 +2078,7 @@
         <v>2761395.5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>45261</v>
       </c>
@@ -2225,7 +2119,7 @@
         <v>2442254</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>45292</v>
       </c>
@@ -2266,7 +2160,7 @@
         <v>2396324.25</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>45323</v>
       </c>
@@ -2307,7 +2201,7 @@
         <v>2596653</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>45352</v>
       </c>
@@ -2348,7 +2242,7 @@
         <v>2564839</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>45383</v>
       </c>
@@ -2389,7 +2283,7 @@
         <v>2459171</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>45413</v>
       </c>
@@ -2430,7 +2324,7 @@
         <v>2596371.25</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>45444</v>
       </c>
@@ -2471,7 +2365,7 @@
         <v>2407872.75</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>45474</v>
       </c>
@@ -2512,7 +2406,7 @@
         <v>2653070</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>45505</v>
       </c>
@@ -2553,7 +2447,7 @@
         <v>2703607</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>45536</v>
       </c>
@@ -2594,7 +2488,7 @@
         <v>2357072</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>45566</v>
       </c>
@@ -2635,7 +2529,7 @@
         <v>2123516.5</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>45597</v>
       </c>
@@ -2676,7 +2570,7 @@
         <v>2219080.5</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>45627</v>
       </c>
@@ -2717,7 +2611,7 @@
         <v>2014151.75</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>45658</v>
       </c>
@@ -2758,7 +2652,7 @@
         <v>2713032.5</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>45689</v>
       </c>
@@ -2799,7 +2693,7 @@
         <v>3630920.5</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>45717</v>
       </c>
@@ -2840,7 +2734,7 @@
         <v>3615953</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>45748</v>
       </c>
@@ -2881,7 +2775,7 @@
         <v>3709737.5</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>45778</v>
       </c>
@@ -2922,7 +2816,7 @@
         <v>3650571.75</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>45809</v>
       </c>
@@ -2963,7 +2857,7 @@
         <v>3366671</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>45839</v>
       </c>
@@ -3004,7 +2898,7 @@
         <v>4235562</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>45870</v>
       </c>
@@ -3045,7 +2939,7 @@
         <v>3901839.25</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>45901</v>
       </c>
@@ -3086,7 +2980,7 @@
         <v>4327025.5</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>45931</v>
       </c>
@@ -3127,7 +3021,7 @@
         <v>3818405</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>45962</v>
       </c>
@@ -3168,7 +3062,7 @@
         <v>3584971.5</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>45992</v>
       </c>
@@ -3224,9 +3118,9 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3249,7 +3143,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -3275,7 +3169,7 @@
         <v>2.8449522787294259E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -3301,7 +3195,7 @@
         <v>4.3697506348989147E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -3327,7 +3221,7 @@
         <v>4.1865128170748077E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -3353,7 +3247,7 @@
         <v>4.6891016559261811E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -3379,7 +3273,7 @@
         <v>5.9863680492933877E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -3405,7 +3299,7 @@
         <v>6.2996640231820986E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -3431,7 +3325,7 @@
         <v>7.7523651389343223E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -3457,7 +3351,7 @@
         <v>0.1110187843794096</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -3483,7 +3377,7 @@
         <v>0.15561206476374981</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -3509,7 +3403,7 @@
         <v>0.15569696041043679</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -3535,7 +3429,7 @@
         <v>0.15561692090150911</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -3561,7 +3455,7 @@
         <v>0.1797210794798603</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -3587,7 +3481,7 @@
         <v>0.28540204970634991</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -3628,9 +3522,9 @@
       <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -3683,7 +3577,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>45017</v>
       </c>
@@ -3736,7 +3630,7 @@
         <v>-5522723</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>45047</v>
       </c>
@@ -3789,7 +3683,7 @@
         <v>4410067</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>45078</v>
       </c>
@@ -3842,7 +3736,7 @@
         <v>3344340</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>45108</v>
       </c>
@@ -3895,7 +3789,7 @@
         <v>-8320510.5</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>45139</v>
       </c>
@@ -3948,7 +3842,7 @@
         <v>-2816799.5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>45170</v>
       </c>
@@ -4001,7 +3895,7 @@
         <v>3624787</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>45200</v>
       </c>
@@ -4054,7 +3948,7 @@
         <v>15884805</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>45231</v>
       </c>
@@ -4107,7 +4001,7 @@
         <v>5099318</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>45261</v>
       </c>
@@ -4160,7 +4054,7 @@
         <v>-1915658</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>45292</v>
       </c>
@@ -4213,7 +4107,7 @@
         <v>11907435</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>45323</v>
       </c>
@@ -4266,7 +4160,7 @@
         <v>-4516252</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>45352</v>
       </c>
@@ -4319,7 +4213,7 @@
         <v>-23161162</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>45383</v>
       </c>
@@ -4372,7 +4266,7 @@
         <v>-13214123</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>45413</v>
       </c>
@@ -4425,7 +4319,7 @@
         <v>21086260</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>45444</v>
       </c>
@@ -4478,7 +4372,7 @@
         <v>-10968545</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>45474</v>
       </c>
@@ -4531,7 +4425,7 @@
         <v>15734592</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>45505</v>
       </c>
@@ -4584,7 +4478,7 @@
         <v>6084294</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>45536</v>
       </c>
@@ -4637,7 +4531,7 @@
         <v>-29821560</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>45566</v>
       </c>
@@ -4690,7 +4584,7 @@
         <v>5072105</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>45597</v>
       </c>
@@ -4743,7 +4637,7 @@
         <v>4365163</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>45627</v>
       </c>
@@ -4796,7 +4690,7 @@
         <v>13223855</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>45658</v>
       </c>
@@ -4849,7 +4743,7 @@
         <v>12776255</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>45689</v>
       </c>
@@ -4902,7 +4796,7 @@
         <v>3696226</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>45717</v>
       </c>
@@ -4955,7 +4849,7 @@
         <v>-1346242</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>45748</v>
       </c>
@@ -5008,7 +4902,7 @@
         <v>39126424</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>45778</v>
       </c>
@@ -5061,7 +4955,7 @@
         <v>17048972</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>45809</v>
       </c>
@@ -5114,7 +5008,7 @@
         <v>-2727632.5</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>45839</v>
       </c>
@@ -5167,7 +5061,7 @@
         <v>17695462</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>45870</v>
       </c>
@@ -5220,7 +5114,7 @@
         <v>15487914</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>45901</v>
       </c>
@@ -5273,7 +5167,7 @@
         <v>2431833</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>45931</v>
       </c>
@@ -5326,7 +5220,7 @@
         <v>32410376</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>45962</v>
       </c>
@@ -5379,7 +5273,7 @@
         <v>41335904</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>45992</v>
       </c>
@@ -5447,9 +5341,9 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5472,7 +5366,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -5498,7 +5392,7 @@
         <v>8.0887988900831514E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -5524,7 +5418,7 @@
         <v>8.6145335365639258E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -5550,7 +5444,7 @@
         <v>9.4539640206198206E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -5576,7 +5470,7 @@
         <v>0.1012770300149691</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -5602,7 +5496,7 @@
         <v>0.1103155586150642</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -5628,7 +5522,7 @@
         <v>0.1005444596651093</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -5654,7 +5548,7 @@
         <v>9.8969494646841211E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -5680,7 +5574,7 @@
         <v>0.10655903989676301</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -5706,7 +5600,7 @@
         <v>0.1103321401743857</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -5732,7 +5626,7 @@
         <v>0.1116360981417468</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -5758,7 +5652,7 @@
         <v>0.13011478363626611</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -5784,7 +5678,7 @@
         <v>0.20920618296357391</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -5810,7 +5704,7 @@
         <v>3.3211205303528999</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -5851,9 +5745,9 @@
       <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -5906,7 +5800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>45017</v>
       </c>
@@ -5959,7 +5853,7 @@
         <v>-987129.5625</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>45047</v>
       </c>
@@ -6012,7 +5906,7 @@
         <v>13916060</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>45078</v>
       </c>
@@ -6065,7 +5959,7 @@
         <v>2012810.875</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>45108</v>
       </c>
@@ -6118,7 +6012,7 @@
         <v>2456744.25</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>45139</v>
       </c>
@@ -6171,7 +6065,7 @@
         <v>-4780149.5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>45170</v>
       </c>
@@ -6224,7 +6118,7 @@
         <v>2311755.5</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>45200</v>
       </c>
@@ -6277,7 +6171,7 @@
         <v>130822256</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>45231</v>
       </c>
@@ -6330,7 +6224,7 @@
         <v>134128480</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>45261</v>
       </c>
@@ -6383,7 +6277,7 @@
         <v>121687288</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>45292</v>
       </c>
@@ -6436,7 +6330,7 @@
         <v>142371872</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>45323</v>
       </c>
@@ -6489,7 +6383,7 @@
         <v>132800768</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>45352</v>
       </c>
@@ -6542,7 +6436,7 @@
         <v>146455424</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>45383</v>
       </c>
@@ -6595,7 +6489,7 @@
         <v>136785376</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>45413</v>
       </c>
@@ -6648,7 +6542,7 @@
         <v>142870976</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>45444</v>
       </c>
@@ -6701,7 +6595,7 @@
         <v>293456608</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>45474</v>
       </c>
@@ -6754,7 +6648,7 @@
         <v>273027904</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>45505</v>
       </c>
@@ -6807,7 +6701,7 @@
         <v>287368288</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>45536</v>
       </c>
@@ -6860,7 +6754,7 @@
         <v>298429984</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>45566</v>
       </c>
@@ -6913,7 +6807,7 @@
         <v>283822336</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>45597</v>
       </c>
@@ -6966,7 +6860,7 @@
         <v>296268960</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>45627</v>
       </c>
@@ -7019,7 +6913,7 @@
         <v>300575456</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>45658</v>
       </c>
@@ -7072,7 +6966,7 @@
         <v>300648448</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>45689</v>
       </c>
@@ -7125,7 +7019,7 @@
         <v>296946272</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>45717</v>
       </c>
@@ -7178,7 +7072,7 @@
         <v>300306400</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>45748</v>
       </c>
@@ -7231,7 +7125,7 @@
         <v>289549984</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>45778</v>
       </c>
@@ -7284,7 +7178,7 @@
         <v>291768992</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>45809</v>
       </c>
@@ -7337,7 +7231,7 @@
         <v>285953280</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>45839</v>
       </c>
@@ -7390,7 +7284,7 @@
         <v>301344288</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>45870</v>
       </c>
@@ -7443,7 +7337,7 @@
         <v>290629856</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>45901</v>
       </c>
@@ -7496,7 +7390,7 @@
         <v>286611424</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>45931</v>
       </c>
@@ -7549,7 +7443,7 @@
         <v>279126464</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>45962</v>
       </c>
@@ -7602,7 +7496,7 @@
         <v>291537568</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>45992</v>
       </c>
@@ -7666,41 +7560,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC77E230-1C25-4F02-A0C1-8A1307F547BC}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="20.4140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" customWidth="1"/>
-    <col min="12" max="12" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.3984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.69921875" customWidth="1"/>
+    <col min="12" max="12" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.69921875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="10.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="D1" s="13" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="D1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11" t="s">
+      <c r="F1" s="13"/>
+      <c r="G1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11" t="s">
+      <c r="H1" s="13"/>
+      <c r="I1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="11"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="7"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -7710,7 +7604,7 @@
       <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="14"/>
+      <c r="D2" s="12"/>
       <c r="E2" t="str">
         <f>Forecasting_전체!C1</f>
         <v>y</v>
@@ -7736,7 +7630,7 @@
         <v>GRU</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>30</v>
       </c>
@@ -7775,7 +7669,7 @@
       </c>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>31</v>
       </c>
@@ -7814,7 +7708,7 @@
       </c>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>30</v>
       </c>
@@ -7853,7 +7747,7 @@
       </c>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>31</v>
       </c>
@@ -7892,7 +7786,7 @@
       </c>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <v>31</v>
       </c>
@@ -7931,7 +7825,7 @@
       </c>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>30</v>
       </c>
@@ -7970,7 +7864,7 @@
       </c>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>31</v>
       </c>
@@ -8009,7 +7903,7 @@
       </c>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>30</v>
       </c>
@@ -8048,7 +7942,7 @@
       </c>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>31</v>
       </c>
@@ -8087,7 +7981,7 @@
       </c>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <v>31</v>
       </c>
@@ -8126,7 +8020,7 @@
       </c>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
         <v>29</v>
       </c>
@@ -8163,26 +8057,26 @@
         <f>Forecasting_주중!D12</f>
         <v>1566386.25</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="11" t="str">
+      <c r="L13" s="13" t="str">
         <f>E1</f>
         <v>전체</v>
       </c>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11" t="str">
+      <c r="M13" s="13"/>
+      <c r="N13" s="13" t="str">
         <f>G1</f>
         <v>주말</v>
       </c>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11" t="str">
+      <c r="O13" s="13"/>
+      <c r="P13" s="13" t="str">
         <f>I1</f>
         <v>주중</v>
       </c>
-      <c r="Q13" s="11"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <v>31</v>
       </c>
@@ -8219,7 +8113,7 @@
         <f>Forecasting_주중!D13</f>
         <v>1194498</v>
       </c>
-      <c r="K14" s="12"/>
+      <c r="K14" s="14"/>
       <c r="L14" t="str">
         <f>F2</f>
         <v>NBEATS</v>
@@ -8242,7 +8136,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="5">
         <v>30</v>
       </c>
@@ -8280,23 +8174,23 @@
         <v>1422745</v>
       </c>
       <c r="K15" s="10">
-        <f>D15</f>
+        <f t="shared" ref="K15:K35" si="0">D15</f>
         <v>45383</v>
       </c>
       <c r="L15" s="6">
-        <f>F15</f>
+        <f t="shared" ref="L15:L35" si="1">F15</f>
         <v>3526623</v>
       </c>
       <c r="M15" s="6">
-        <f>L15/A15</f>
+        <f t="shared" ref="M15:M35" si="2">L15/A15</f>
         <v>117554.1</v>
       </c>
       <c r="N15" s="6">
-        <f>H15</f>
+        <f t="shared" ref="N15:N35" si="3">H15</f>
         <v>1385457</v>
       </c>
       <c r="O15" s="6">
-        <f>N15/B15</f>
+        <f t="shared" ref="O15:O35" si="4">N15/B15</f>
         <v>115454.75</v>
       </c>
       <c r="P15" s="6">
@@ -8304,11 +8198,11 @@
         <v>1422745</v>
       </c>
       <c r="Q15" s="6">
-        <f>P15/C15</f>
+        <f t="shared" ref="Q15:Q35" si="5">P15/C15</f>
         <v>79041.388888888891</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="5">
         <v>31</v>
       </c>
@@ -8346,35 +8240,35 @@
         <v>1472937.25</v>
       </c>
       <c r="K16" s="10">
-        <f>D16</f>
+        <f t="shared" si="0"/>
         <v>45413</v>
       </c>
       <c r="L16" s="6">
-        <f>F16</f>
+        <f t="shared" si="1"/>
         <v>3611019</v>
       </c>
       <c r="M16" s="6">
-        <f>L16/A16</f>
+        <f t="shared" si="2"/>
         <v>116484.48387096774</v>
       </c>
       <c r="N16" s="6">
-        <f>H16</f>
+        <f t="shared" si="3"/>
         <v>1439347.625</v>
       </c>
       <c r="O16" s="6">
-        <f>N16/B16</f>
+        <f t="shared" si="4"/>
         <v>110719.04807692308</v>
       </c>
       <c r="P16" s="6">
-        <f t="shared" ref="P16:P35" si="0">J16</f>
+        <f t="shared" ref="P16:P35" si="6">J16</f>
         <v>1472937.25</v>
       </c>
       <c r="Q16" s="6">
-        <f>P16/C16</f>
+        <f t="shared" si="5"/>
         <v>81829.847222222219</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <v>30</v>
       </c>
@@ -8412,35 +8306,35 @@
         <v>1225282</v>
       </c>
       <c r="K17" s="10">
-        <f>D17</f>
+        <f t="shared" si="0"/>
         <v>45444</v>
       </c>
       <c r="L17" s="6">
-        <f>F17</f>
+        <f t="shared" si="1"/>
         <v>3573648.5</v>
       </c>
       <c r="M17" s="6">
-        <f>L17/A17</f>
+        <f t="shared" si="2"/>
         <v>119121.61666666667</v>
       </c>
       <c r="N17" s="6">
-        <f>H17</f>
+        <f t="shared" si="3"/>
         <v>1501630</v>
       </c>
       <c r="O17" s="6">
-        <f>N17/B17</f>
+        <f t="shared" si="4"/>
         <v>107259.28571428571</v>
       </c>
       <c r="P17" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1225282</v>
       </c>
       <c r="Q17" s="6">
-        <f>P17/C17</f>
+        <f t="shared" si="5"/>
         <v>76580.125</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18" s="5">
         <v>31</v>
       </c>
@@ -8478,35 +8372,35 @@
         <v>1555136.25</v>
       </c>
       <c r="K18" s="10">
-        <f>D18</f>
+        <f t="shared" si="0"/>
         <v>45474</v>
       </c>
       <c r="L18" s="6">
-        <f>F18</f>
+        <f t="shared" si="1"/>
         <v>3660756.75</v>
       </c>
       <c r="M18" s="6">
-        <f>L18/A18</f>
+        <f t="shared" si="2"/>
         <v>118088.92741935483</v>
       </c>
       <c r="N18" s="6">
-        <f>H18</f>
+        <f t="shared" si="3"/>
         <v>1410332.25</v>
       </c>
       <c r="O18" s="6">
-        <f>N18/B18</f>
+        <f t="shared" si="4"/>
         <v>117527.6875</v>
       </c>
       <c r="P18" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1555136.25</v>
       </c>
       <c r="Q18" s="6">
-        <f>P18/C18</f>
+        <f t="shared" si="5"/>
         <v>81849.276315789481</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <v>31</v>
       </c>
@@ -8544,35 +8438,35 @@
         <v>1429345.125</v>
       </c>
       <c r="K19" s="10">
-        <f>D19</f>
+        <f t="shared" si="0"/>
         <v>45505</v>
       </c>
       <c r="L19" s="6">
-        <f>F19</f>
+        <f t="shared" si="1"/>
         <v>3604046.75</v>
       </c>
       <c r="M19" s="6">
-        <f>L19/A19</f>
+        <f t="shared" si="2"/>
         <v>116259.57258064517</v>
       </c>
       <c r="N19" s="6">
-        <f>H19</f>
+        <f t="shared" si="3"/>
         <v>1462989.625</v>
       </c>
       <c r="O19" s="6">
-        <f>N19/B19</f>
+        <f t="shared" si="4"/>
         <v>104499.25892857143</v>
       </c>
       <c r="P19" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1429345.125</v>
       </c>
       <c r="Q19" s="6">
-        <f>P19/C19</f>
+        <f t="shared" si="5"/>
         <v>84079.125</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20" s="5">
         <v>30</v>
       </c>
@@ -8610,35 +8504,35 @@
         <v>1528997.875</v>
       </c>
       <c r="K20" s="10">
-        <f>D20</f>
+        <f t="shared" si="0"/>
         <v>45536</v>
       </c>
       <c r="L20" s="6">
-        <f>F20</f>
+        <f t="shared" si="1"/>
         <v>3650265.25</v>
       </c>
       <c r="M20" s="6">
-        <f>L20/A20</f>
+        <f t="shared" si="2"/>
         <v>121675.50833333333</v>
       </c>
       <c r="N20" s="6">
-        <f>H20</f>
+        <f t="shared" si="3"/>
         <v>1491501.375</v>
       </c>
       <c r="O20" s="6">
-        <f>N20/B20</f>
+        <f t="shared" si="4"/>
         <v>114730.875</v>
       </c>
       <c r="P20" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1528997.875</v>
       </c>
       <c r="Q20" s="6">
-        <f>P20/C20</f>
+        <f t="shared" si="5"/>
         <v>89941.051470588238</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21" s="5">
         <v>31</v>
       </c>
@@ -8676,35 +8570,35 @@
         <v>1623493.875</v>
       </c>
       <c r="K21" s="10">
-        <f>D21</f>
+        <f t="shared" si="0"/>
         <v>45566</v>
       </c>
       <c r="L21" s="6">
-        <f>F21</f>
+        <f t="shared" si="1"/>
         <v>3759440.5</v>
       </c>
       <c r="M21" s="6">
-        <f>L21/A21</f>
+        <f t="shared" si="2"/>
         <v>121272.27419354839</v>
       </c>
       <c r="N21" s="6">
-        <f>H21</f>
+        <f t="shared" si="3"/>
         <v>1390290.625</v>
       </c>
       <c r="O21" s="6">
-        <f>N21/B21</f>
+        <f t="shared" si="4"/>
         <v>115857.55208333333</v>
       </c>
       <c r="P21" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1623493.875</v>
       </c>
       <c r="Q21" s="6">
-        <f>P21/C21</f>
+        <f t="shared" si="5"/>
         <v>85447.046052631573</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22" s="5">
         <v>30</v>
       </c>
@@ -8742,35 +8636,35 @@
         <v>1230325.375</v>
       </c>
       <c r="K22" s="10">
-        <f>D22</f>
+        <f t="shared" si="0"/>
         <v>45597</v>
       </c>
       <c r="L22" s="6">
-        <f>F22</f>
+        <f t="shared" si="1"/>
         <v>3788538.5</v>
       </c>
       <c r="M22" s="6">
-        <f>L22/A22</f>
+        <f t="shared" si="2"/>
         <v>126284.61666666667</v>
       </c>
       <c r="N22" s="6">
-        <f>H22</f>
+        <f t="shared" si="3"/>
         <v>1616724.125</v>
       </c>
       <c r="O22" s="6">
-        <f>N22/B22</f>
+        <f t="shared" si="4"/>
         <v>115480.29464285714</v>
       </c>
       <c r="P22" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1230325.375</v>
       </c>
       <c r="Q22" s="6">
-        <f>P22/C22</f>
+        <f t="shared" si="5"/>
         <v>76895.3359375</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23" s="5">
         <v>31</v>
       </c>
@@ -8808,35 +8702,35 @@
         <v>1478268</v>
       </c>
       <c r="K23" s="10">
-        <f>D23</f>
+        <f t="shared" si="0"/>
         <v>45627</v>
       </c>
       <c r="L23" s="6">
-        <f>F23</f>
+        <f t="shared" si="1"/>
         <v>3839723</v>
       </c>
       <c r="M23" s="6">
-        <f>L23/A23</f>
+        <f t="shared" si="2"/>
         <v>123862.03225806452</v>
       </c>
       <c r="N23" s="6">
-        <f>H23</f>
+        <f t="shared" si="3"/>
         <v>1654915.625</v>
       </c>
       <c r="O23" s="6">
-        <f>N23/B23</f>
+        <f t="shared" si="4"/>
         <v>127301.20192307692</v>
       </c>
       <c r="P23" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1478268</v>
       </c>
       <c r="Q23" s="6">
-        <f>P23/C23</f>
+        <f t="shared" si="5"/>
         <v>82126</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
         <v>31</v>
       </c>
@@ -8874,35 +8768,35 @@
         <v>1665515.5</v>
       </c>
       <c r="K24" s="10">
-        <f>D24</f>
+        <f t="shared" si="0"/>
         <v>45658</v>
       </c>
       <c r="L24" s="6">
-        <f>F24</f>
+        <f t="shared" si="1"/>
         <v>3808182.75</v>
       </c>
       <c r="M24" s="6">
-        <f>L24/A24</f>
+        <f t="shared" si="2"/>
         <v>122844.60483870968</v>
       </c>
       <c r="N24" s="6">
-        <f>H24</f>
+        <f t="shared" si="3"/>
         <v>1273250.25</v>
       </c>
       <c r="O24" s="6">
-        <f>N24/B24</f>
+        <f t="shared" si="4"/>
         <v>97942.326923076922</v>
       </c>
       <c r="P24" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1665515.5</v>
       </c>
       <c r="Q24" s="6">
-        <f>P24/C24</f>
+        <f t="shared" si="5"/>
         <v>92528.638888888891</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25" s="5">
         <v>28</v>
       </c>
@@ -8940,35 +8834,35 @@
         <v>1218281.375</v>
       </c>
       <c r="K25" s="10">
-        <f>D25</f>
+        <f t="shared" si="0"/>
         <v>45689</v>
       </c>
       <c r="L25" s="6">
-        <f>F25</f>
+        <f t="shared" si="1"/>
         <v>3862500.25</v>
       </c>
       <c r="M25" s="6">
-        <f>L25/A25</f>
+        <f t="shared" si="2"/>
         <v>137946.4375</v>
       </c>
       <c r="N25" s="6">
-        <f>H25</f>
+        <f t="shared" si="3"/>
         <v>1135617.75</v>
       </c>
       <c r="O25" s="6">
-        <f>N25/B25</f>
+        <f t="shared" si="4"/>
         <v>94634.8125</v>
       </c>
       <c r="P25" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1218281.375</v>
       </c>
       <c r="Q25" s="6">
-        <f>P25/C25</f>
+        <f t="shared" si="5"/>
         <v>76142.5859375</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26" s="5">
         <v>31</v>
       </c>
@@ -9006,35 +8900,35 @@
         <v>1279479.375</v>
       </c>
       <c r="K26" s="10">
-        <f>D26</f>
+        <f t="shared" si="0"/>
         <v>45717</v>
       </c>
       <c r="L26" s="6">
-        <f>F26</f>
+        <f t="shared" si="1"/>
         <v>3918111.25</v>
       </c>
       <c r="M26" s="6">
-        <f>L26/A26</f>
+        <f t="shared" si="2"/>
         <v>126390.68548387097</v>
       </c>
       <c r="N26" s="6">
-        <f>H26</f>
+        <f t="shared" si="3"/>
         <v>1280953.125</v>
       </c>
       <c r="O26" s="6">
-        <f>N26/B26</f>
+        <f t="shared" si="4"/>
         <v>91496.65178571429</v>
       </c>
       <c r="P26" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1279479.375</v>
       </c>
       <c r="Q26" s="6">
-        <f>P26/C26</f>
+        <f t="shared" si="5"/>
         <v>75263.492647058825</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27" s="5">
         <v>30</v>
       </c>
@@ -9072,35 +8966,35 @@
         <v>1453774.125</v>
       </c>
       <c r="K27" s="10">
-        <f>D27</f>
+        <f t="shared" si="0"/>
         <v>45748</v>
       </c>
       <c r="L27" s="6">
-        <f>F27</f>
+        <f t="shared" si="1"/>
         <v>4008163</v>
       </c>
       <c r="M27" s="6">
-        <f>L27/A27</f>
+        <f t="shared" si="2"/>
         <v>133605.43333333332</v>
       </c>
       <c r="N27" s="6">
-        <f>H27</f>
+        <f t="shared" si="3"/>
         <v>1446854</v>
       </c>
       <c r="O27" s="6">
-        <f>N27/B27</f>
+        <f t="shared" si="4"/>
         <v>120571.16666666667</v>
       </c>
       <c r="P27" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1453774.125</v>
       </c>
       <c r="Q27" s="6">
-        <f>P27/C27</f>
+        <f t="shared" si="5"/>
         <v>80765.229166666672</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28" s="5">
         <v>31</v>
       </c>
@@ -9138,35 +9032,35 @@
         <v>1330766.125</v>
       </c>
       <c r="K28" s="10">
-        <f>D28</f>
+        <f t="shared" si="0"/>
         <v>45778</v>
       </c>
       <c r="L28" s="6">
-        <f>F28</f>
+        <f t="shared" si="1"/>
         <v>4007408</v>
       </c>
       <c r="M28" s="6">
-        <f>L28/A28</f>
+        <f t="shared" si="2"/>
         <v>129271.22580645161</v>
       </c>
       <c r="N28" s="6">
-        <f>H28</f>
+        <f t="shared" si="3"/>
         <v>1476447.125</v>
       </c>
       <c r="O28" s="6">
-        <f>N28/B28</f>
+        <f t="shared" si="4"/>
         <v>105460.50892857143</v>
       </c>
       <c r="P28" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1330766.125</v>
       </c>
       <c r="Q28" s="6">
-        <f>P28/C28</f>
+        <f t="shared" si="5"/>
         <v>78280.36029411765</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29" s="5">
         <v>30</v>
       </c>
@@ -9204,35 +9098,35 @@
         <v>1281141.75</v>
       </c>
       <c r="K29" s="10">
-        <f>D29</f>
+        <f t="shared" si="0"/>
         <v>45809</v>
       </c>
       <c r="L29" s="6">
-        <f>F29</f>
+        <f t="shared" si="1"/>
         <v>4037032.5</v>
       </c>
       <c r="M29" s="6">
-        <f>L29/A29</f>
+        <f t="shared" si="2"/>
         <v>134567.75</v>
       </c>
       <c r="N29" s="6">
-        <f>H29</f>
+        <f t="shared" si="3"/>
         <v>1549218.875</v>
       </c>
       <c r="O29" s="6">
-        <f>N29/B29</f>
+        <f t="shared" si="4"/>
         <v>119170.68269230769</v>
       </c>
       <c r="P29" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1281141.75</v>
       </c>
       <c r="Q29" s="6">
-        <f>P29/C29</f>
+        <f t="shared" si="5"/>
         <v>75361.279411764699</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30" s="5">
         <v>31</v>
       </c>
@@ -9270,35 +9164,35 @@
         <v>1589247.375</v>
       </c>
       <c r="K30" s="10">
-        <f>D30</f>
+        <f t="shared" si="0"/>
         <v>45839</v>
       </c>
       <c r="L30" s="6">
-        <f>F30</f>
+        <f t="shared" si="1"/>
         <v>4060179.25</v>
       </c>
       <c r="M30" s="6">
-        <f>L30/A30</f>
+        <f t="shared" si="2"/>
         <v>130973.52419354839</v>
       </c>
       <c r="N30" s="6">
-        <f>H30</f>
+        <f t="shared" si="3"/>
         <v>1471571.875</v>
       </c>
       <c r="O30" s="6">
-        <f>N30/B30</f>
+        <f t="shared" si="4"/>
         <v>122630.98958333333</v>
       </c>
       <c r="P30" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1589247.375</v>
       </c>
       <c r="Q30" s="6">
-        <f>P30/C30</f>
+        <f t="shared" si="5"/>
         <v>83644.598684210519</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A31" s="5">
         <v>31</v>
       </c>
@@ -9336,35 +9230,35 @@
         <v>1261300.375</v>
       </c>
       <c r="K31" s="10">
-        <f>D31</f>
+        <f t="shared" si="0"/>
         <v>45870</v>
       </c>
       <c r="L31" s="6">
-        <f>F31</f>
+        <f t="shared" si="1"/>
         <v>4097172.25</v>
       </c>
       <c r="M31" s="6">
-        <f>L31/A31</f>
+        <f t="shared" si="2"/>
         <v>132166.84677419355</v>
       </c>
       <c r="N31" s="6">
-        <f>H31</f>
+        <f t="shared" si="3"/>
         <v>1720300.375</v>
       </c>
       <c r="O31" s="6">
-        <f>N31/B31</f>
+        <f t="shared" si="4"/>
         <v>114686.69166666667</v>
       </c>
       <c r="P31" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1261300.375</v>
       </c>
       <c r="Q31" s="6">
-        <f>P31/C31</f>
+        <f t="shared" si="5"/>
         <v>78831.2734375</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A32" s="5">
         <v>30</v>
       </c>
@@ -9402,35 +9296,35 @@
         <v>1381939</v>
       </c>
       <c r="K32" s="10">
-        <f>D32</f>
+        <f t="shared" si="0"/>
         <v>45901</v>
       </c>
       <c r="L32" s="6">
-        <f>F32</f>
+        <f t="shared" si="1"/>
         <v>4099446.75</v>
       </c>
       <c r="M32" s="6">
-        <f>L32/A32</f>
+        <f t="shared" si="2"/>
         <v>136648.22500000001</v>
       </c>
       <c r="N32" s="6">
-        <f>H32</f>
+        <f t="shared" si="3"/>
         <v>1404066.25</v>
       </c>
       <c r="O32" s="6">
-        <f>N32/B32</f>
+        <f t="shared" si="4"/>
         <v>117005.52083333333</v>
       </c>
       <c r="P32" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1381939</v>
       </c>
       <c r="Q32" s="6">
-        <f>P32/C32</f>
+        <f t="shared" si="5"/>
         <v>76774.388888888891</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A33" s="5">
         <v>31</v>
       </c>
@@ -9468,35 +9362,35 @@
         <v>1546653.875</v>
       </c>
       <c r="K33" s="10">
-        <f>D33</f>
+        <f t="shared" si="0"/>
         <v>45931</v>
       </c>
       <c r="L33" s="6">
-        <f>F33</f>
+        <f t="shared" si="1"/>
         <v>4081235</v>
       </c>
       <c r="M33" s="6">
-        <f>L33/A33</f>
+        <f t="shared" si="2"/>
         <v>131652.74193548388</v>
       </c>
       <c r="N33" s="6">
-        <f>H33</f>
+        <f t="shared" si="3"/>
         <v>1465808.5</v>
       </c>
       <c r="O33" s="6">
-        <f>N33/B33</f>
+        <f t="shared" si="4"/>
         <v>112754.5</v>
       </c>
       <c r="P33" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1546653.875</v>
       </c>
       <c r="Q33" s="6">
-        <f>P33/C33</f>
+        <f t="shared" si="5"/>
         <v>85925.215277777781</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A34" s="5">
         <v>30</v>
       </c>
@@ -9534,35 +9428,35 @@
         <v>1274487.125</v>
       </c>
       <c r="K34" s="10">
-        <f>D34</f>
+        <f t="shared" si="0"/>
         <v>45962</v>
       </c>
       <c r="L34" s="6">
-        <f>F34</f>
+        <f t="shared" si="1"/>
         <v>4114394.75</v>
       </c>
       <c r="M34" s="6">
-        <f>L34/A34</f>
+        <f t="shared" si="2"/>
         <v>137146.49166666667</v>
       </c>
       <c r="N34" s="6">
-        <f>H34</f>
+        <f t="shared" si="3"/>
         <v>1900216.5</v>
       </c>
       <c r="O34" s="6">
-        <f>N34/B34</f>
+        <f t="shared" si="4"/>
         <v>135729.75</v>
       </c>
       <c r="P34" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1274487.125</v>
       </c>
       <c r="Q34" s="6">
-        <f>P34/C34</f>
+        <f t="shared" si="5"/>
         <v>79655.4453125</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A35" s="5">
         <v>31</v>
       </c>
@@ -9600,31 +9494,31 @@
         <v>1567245</v>
       </c>
       <c r="K35" s="10">
-        <f>D35</f>
+        <f t="shared" si="0"/>
         <v>45992</v>
       </c>
       <c r="L35" s="6">
-        <f>F35</f>
+        <f t="shared" si="1"/>
         <v>4202335.5</v>
       </c>
       <c r="M35" s="6">
-        <f>L35/A35</f>
+        <f t="shared" si="2"/>
         <v>135559.20967741936</v>
       </c>
       <c r="N35" s="6">
-        <f>H35</f>
+        <f t="shared" si="3"/>
         <v>1650248</v>
       </c>
       <c r="O35" s="6">
-        <f>N35/B35</f>
+        <f t="shared" si="4"/>
         <v>137520.66666666666</v>
       </c>
       <c r="P35" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1567245</v>
       </c>
       <c r="Q35" s="6">
-        <f>P35/C35</f>
+        <f t="shared" si="5"/>
         <v>82486.578947368427</v>
       </c>
     </row>
@@ -9642,930 +9536,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2559B256-76CA-457E-A007-521321253CFB}">
-  <dimension ref="A1:U35"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="20.4140625" style="9" customWidth="1"/>
-    <col min="3" max="4" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.58203125" customWidth="1"/>
-    <col min="6" max="6" width="10.58203125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.58203125" customWidth="1"/>
-    <col min="10" max="10" width="10.58203125" style="16" customWidth="1"/>
-    <col min="11" max="12" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.58203125" customWidth="1"/>
-    <col min="14" max="14" width="10.58203125" style="16" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" customWidth="1"/>
-    <col min="16" max="16" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="10.58203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A1" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="7"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A3" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="6">
-        <f>Forecasting_전체!C2</f>
-        <v>3281372</v>
-      </c>
-      <c r="D3" s="6">
-        <f>Forecasting_전체!D2</f>
-        <v>3209957.25</v>
-      </c>
-      <c r="E3" s="6">
-        <f>D3-C3</f>
-        <v>-71414.75</v>
-      </c>
-      <c r="F3" s="16">
-        <f>E3/C3</f>
-        <v>-2.176368604352082E-2</v>
-      </c>
-      <c r="G3" s="6">
-        <f>Forecasting_주말!C2</f>
-        <v>1831775</v>
-      </c>
-      <c r="H3" s="6">
-        <f>Forecasting_주말!D2</f>
-        <v>1877192</v>
-      </c>
-      <c r="I3" s="6">
-        <f>H3-G3</f>
-        <v>45417</v>
-      </c>
-      <c r="J3" s="16">
-        <f>I3/G3</f>
-        <v>2.4793983977289786E-2</v>
-      </c>
-      <c r="K3" s="6">
-        <f>Forecasting_주중!C2</f>
-        <v>1449597</v>
-      </c>
-      <c r="L3" s="6">
-        <f>Forecasting_주중!D2</f>
-        <v>1328690.625</v>
-      </c>
-      <c r="M3" s="6">
-        <f>L3-K3</f>
-        <v>-120906.375</v>
-      </c>
-      <c r="N3" s="16">
-        <f>M3/K3</f>
-        <v>-8.3406888259288617E-2</v>
-      </c>
-      <c r="O3" s="6"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="6">
-        <f>Forecasting_전체!C3</f>
-        <v>3460800</v>
-      </c>
-      <c r="D4" s="6">
-        <f>Forecasting_전체!D3</f>
-        <v>3232945.5</v>
-      </c>
-      <c r="E4" s="6">
-        <f t="shared" ref="E4:E14" si="0">D4-C4</f>
-        <v>-227854.5</v>
-      </c>
-      <c r="F4" s="16">
-        <f t="shared" ref="F4:F14" si="1">E4/C4</f>
-        <v>-6.5838678918169205E-2</v>
-      </c>
-      <c r="G4" s="6">
-        <f>Forecasting_주말!C3</f>
-        <v>1611120</v>
-      </c>
-      <c r="H4" s="6">
-        <f>Forecasting_주말!D3</f>
-        <v>1645452.25</v>
-      </c>
-      <c r="I4" s="6">
-        <f t="shared" ref="I4:I14" si="2">H4-G4</f>
-        <v>34332.25</v>
-      </c>
-      <c r="J4" s="16">
-        <f t="shared" ref="J4:J14" si="3">I4/G4</f>
-        <v>2.1309554843835343E-2</v>
-      </c>
-      <c r="K4" s="6">
-        <f>Forecasting_주중!C3</f>
-        <v>1849680</v>
-      </c>
-      <c r="L4" s="6">
-        <f>Forecasting_주중!D3</f>
-        <v>1681071.5</v>
-      </c>
-      <c r="M4" s="6">
-        <f t="shared" ref="M4:M14" si="4">L4-K4</f>
-        <v>-168608.5</v>
-      </c>
-      <c r="N4" s="16">
-        <f t="shared" ref="N4:N14" si="5">M4/K4</f>
-        <v>-9.1155497167077548E-2</v>
-      </c>
-      <c r="O4" s="6"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="6">
-        <f>Forecasting_전체!C4</f>
-        <v>3274361</v>
-      </c>
-      <c r="D5" s="6">
-        <f>Forecasting_전체!D4</f>
-        <v>3186083.75</v>
-      </c>
-      <c r="E5" s="6">
-        <f t="shared" si="0"/>
-        <v>-88277.25</v>
-      </c>
-      <c r="F5" s="16">
-        <f t="shared" si="1"/>
-        <v>-2.6960145811656077E-2</v>
-      </c>
-      <c r="G5" s="6">
-        <f>Forecasting_주말!C4</f>
-        <v>1678704</v>
-      </c>
-      <c r="H5" s="6">
-        <f>Forecasting_주말!D4</f>
-        <v>1685881.75</v>
-      </c>
-      <c r="I5" s="6">
-        <f t="shared" si="2"/>
-        <v>7177.75</v>
-      </c>
-      <c r="J5" s="16">
-        <f t="shared" si="3"/>
-        <v>4.275768688226155E-3</v>
-      </c>
-      <c r="K5" s="6">
-        <f>Forecasting_주중!C4</f>
-        <v>1595657</v>
-      </c>
-      <c r="L5" s="6">
-        <f>Forecasting_주중!D4</f>
-        <v>1436250.125</v>
-      </c>
-      <c r="M5" s="6">
-        <f t="shared" si="4"/>
-        <v>-159406.875</v>
-      </c>
-      <c r="N5" s="16">
-        <f t="shared" si="5"/>
-        <v>-9.9900464197506103E-2</v>
-      </c>
-      <c r="O5" s="6"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="6">
-        <f>Forecasting_전체!C5</f>
-        <v>3279768</v>
-      </c>
-      <c r="D6" s="6">
-        <f>Forecasting_전체!D5</f>
-        <v>3169345.25</v>
-      </c>
-      <c r="E6" s="6">
-        <f t="shared" si="0"/>
-        <v>-110422.75</v>
-      </c>
-      <c r="F6" s="16">
-        <f t="shared" si="1"/>
-        <v>-3.3667853945766893E-2</v>
-      </c>
-      <c r="G6" s="6">
-        <f>Forecasting_주말!C5</f>
-        <v>1688805</v>
-      </c>
-      <c r="H6" s="6">
-        <f>Forecasting_주말!D5</f>
-        <v>1560501.25</v>
-      </c>
-      <c r="I6" s="6">
-        <f t="shared" si="2"/>
-        <v>-128303.75</v>
-      </c>
-      <c r="J6" s="16">
-        <f t="shared" si="3"/>
-        <v>-7.5973099321709731E-2</v>
-      </c>
-      <c r="K6" s="6">
-        <f>Forecasting_주중!C5</f>
-        <v>1590963</v>
-      </c>
-      <c r="L6" s="6">
-        <f>Forecasting_주중!D5</f>
-        <v>1518463.375</v>
-      </c>
-      <c r="M6" s="6">
-        <f t="shared" si="4"/>
-        <v>-72499.625</v>
-      </c>
-      <c r="N6" s="16">
-        <f t="shared" si="5"/>
-        <v>-4.5569648697047008E-2</v>
-      </c>
-      <c r="O6" s="6"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="6">
-        <f>Forecasting_전체!C6</f>
-        <v>3352224</v>
-      </c>
-      <c r="D7" s="6">
-        <f>Forecasting_전체!D6</f>
-        <v>3189311.5</v>
-      </c>
-      <c r="E7" s="6">
-        <f t="shared" si="0"/>
-        <v>-162912.5</v>
-      </c>
-      <c r="F7" s="16">
-        <f t="shared" si="1"/>
-        <v>-4.8598333524251365E-2</v>
-      </c>
-      <c r="G7" s="6">
-        <f>Forecasting_주말!C6</f>
-        <v>1519750</v>
-      </c>
-      <c r="H7" s="6">
-        <f>Forecasting_주말!D6</f>
-        <v>1497865.5</v>
-      </c>
-      <c r="I7" s="6">
-        <f t="shared" si="2"/>
-        <v>-21884.5</v>
-      </c>
-      <c r="J7" s="16">
-        <f t="shared" si="3"/>
-        <v>-1.4400065800296102E-2</v>
-      </c>
-      <c r="K7" s="6">
-        <f>Forecasting_주중!C6</f>
-        <v>1832474</v>
-      </c>
-      <c r="L7" s="6">
-        <f>Forecasting_주중!D6</f>
-        <v>1693508</v>
-      </c>
-      <c r="M7" s="6">
-        <f t="shared" si="4"/>
-        <v>-138966</v>
-      </c>
-      <c r="N7" s="16">
-        <f t="shared" si="5"/>
-        <v>-7.5835182381850982E-2</v>
-      </c>
-      <c r="O7" s="6"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="6">
-        <f>Forecasting_전체!C7</f>
-        <v>3291100</v>
-      </c>
-      <c r="D8" s="6">
-        <f>Forecasting_전체!D7</f>
-        <v>3298762.75</v>
-      </c>
-      <c r="E8" s="6">
-        <f t="shared" si="0"/>
-        <v>7662.75</v>
-      </c>
-      <c r="F8" s="16">
-        <f t="shared" si="1"/>
-        <v>2.3283248761812158E-3</v>
-      </c>
-      <c r="G8" s="6">
-        <f>Forecasting_주말!C7</f>
-        <v>1730278</v>
-      </c>
-      <c r="H8" s="6">
-        <f>Forecasting_주말!D7</f>
-        <v>1518906.875</v>
-      </c>
-      <c r="I8" s="6">
-        <f t="shared" si="2"/>
-        <v>-211371.125</v>
-      </c>
-      <c r="J8" s="16">
-        <f t="shared" si="3"/>
-        <v>-0.12216021067134876</v>
-      </c>
-      <c r="K8" s="6">
-        <f>Forecasting_주중!C7</f>
-        <v>1560822</v>
-      </c>
-      <c r="L8" s="6">
-        <f>Forecasting_주중!D7</f>
-        <v>1492780</v>
-      </c>
-      <c r="M8" s="6">
-        <f t="shared" si="4"/>
-        <v>-68042</v>
-      </c>
-      <c r="N8" s="16">
-        <f t="shared" si="5"/>
-        <v>-4.3593696142160993E-2</v>
-      </c>
-      <c r="O8" s="6"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="6">
-        <f>Forecasting_전체!C8</f>
-        <v>3643417</v>
-      </c>
-      <c r="D9" s="6">
-        <f>Forecasting_전체!D8</f>
-        <v>3367579.25</v>
-      </c>
-      <c r="E9" s="6">
-        <f t="shared" si="0"/>
-        <v>-275837.75</v>
-      </c>
-      <c r="F9" s="16">
-        <f t="shared" si="1"/>
-        <v>-7.570853130454186E-2</v>
-      </c>
-      <c r="G9" s="6">
-        <f>Forecasting_주말!C8</f>
-        <v>1823506</v>
-      </c>
-      <c r="H9" s="6">
-        <f>Forecasting_주말!D8</f>
-        <v>1876423.5</v>
-      </c>
-      <c r="I9" s="6">
-        <f t="shared" si="2"/>
-        <v>52917.5</v>
-      </c>
-      <c r="J9" s="16">
-        <f t="shared" si="3"/>
-        <v>2.9019646768368188E-2</v>
-      </c>
-      <c r="K9" s="6">
-        <f>Forecasting_주중!C8</f>
-        <v>1819911</v>
-      </c>
-      <c r="L9" s="6">
-        <f>Forecasting_주중!D8</f>
-        <v>1780575.75</v>
-      </c>
-      <c r="M9" s="6">
-        <f t="shared" si="4"/>
-        <v>-39335.25</v>
-      </c>
-      <c r="N9" s="16">
-        <f t="shared" si="5"/>
-        <v>-2.1613831665394625E-2</v>
-      </c>
-      <c r="O9" s="6"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="6">
-        <f>Forecasting_전체!C9</f>
-        <v>3547176</v>
-      </c>
-      <c r="D10" s="6">
-        <f>Forecasting_전체!D9</f>
-        <v>3385911</v>
-      </c>
-      <c r="E10" s="6">
-        <f t="shared" si="0"/>
-        <v>-161265</v>
-      </c>
-      <c r="F10" s="16">
-        <f t="shared" si="1"/>
-        <v>-4.5462926000852506E-2</v>
-      </c>
-      <c r="G10" s="6">
-        <f>Forecasting_주말!C9</f>
-        <v>1776440</v>
-      </c>
-      <c r="H10" s="6">
-        <f>Forecasting_주말!D9</f>
-        <v>1794702.5</v>
-      </c>
-      <c r="I10" s="6">
-        <f t="shared" si="2"/>
-        <v>18262.5</v>
-      </c>
-      <c r="J10" s="16">
-        <f t="shared" si="3"/>
-        <v>1.0280392245164487E-2</v>
-      </c>
-      <c r="K10" s="6">
-        <f>Forecasting_주중!C9</f>
-        <v>1770736</v>
-      </c>
-      <c r="L10" s="6">
-        <f>Forecasting_주중!D9</f>
-        <v>1622337</v>
-      </c>
-      <c r="M10" s="6">
-        <f t="shared" si="4"/>
-        <v>-148399</v>
-      </c>
-      <c r="N10" s="16">
-        <f t="shared" si="5"/>
-        <v>-8.3806394629125966E-2</v>
-      </c>
-      <c r="O10" s="6"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="6">
-        <f>Forecasting_전체!C10</f>
-        <v>3647548</v>
-      </c>
-      <c r="D11" s="6">
-        <f>Forecasting_전체!D10</f>
-        <v>3357167.25</v>
-      </c>
-      <c r="E11" s="6">
-        <f t="shared" si="0"/>
-        <v>-290380.75</v>
-      </c>
-      <c r="F11" s="16">
-        <f t="shared" si="1"/>
-        <v>-7.9609850233636398E-2</v>
-      </c>
-      <c r="G11" s="6">
-        <f>Forecasting_주말!C10</f>
-        <v>2030693</v>
-      </c>
-      <c r="H11" s="6">
-        <f>Forecasting_주말!D10</f>
-        <v>2087307.5</v>
-      </c>
-      <c r="I11" s="6">
-        <f t="shared" si="2"/>
-        <v>56614.5</v>
-      </c>
-      <c r="J11" s="16">
-        <f t="shared" si="3"/>
-        <v>2.787939880622034E-2</v>
-      </c>
-      <c r="K11" s="6">
-        <f>Forecasting_주중!C10</f>
-        <v>1616855</v>
-      </c>
-      <c r="L11" s="6">
-        <f>Forecasting_주중!D10</f>
-        <v>1537221.625</v>
-      </c>
-      <c r="M11" s="6">
-        <f t="shared" si="4"/>
-        <v>-79633.375</v>
-      </c>
-      <c r="N11" s="16">
-        <f t="shared" si="5"/>
-        <v>-4.9252020125490535E-2</v>
-      </c>
-      <c r="O11" s="6"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A12" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="6">
-        <f>Forecasting_전체!C11</f>
-        <v>3318669</v>
-      </c>
-      <c r="D12" s="6">
-        <f>Forecasting_전체!D11</f>
-        <v>3326395.75</v>
-      </c>
-      <c r="E12" s="6">
-        <f t="shared" si="0"/>
-        <v>7726.75</v>
-      </c>
-      <c r="F12" s="16">
-        <f t="shared" si="1"/>
-        <v>2.3282677483051186E-3</v>
-      </c>
-      <c r="G12" s="6">
-        <f>Forecasting_주말!C11</f>
-        <v>1512083</v>
-      </c>
-      <c r="H12" s="6">
-        <f>Forecasting_주말!D11</f>
-        <v>1318070.75</v>
-      </c>
-      <c r="I12" s="6">
-        <f t="shared" si="2"/>
-        <v>-194012.25</v>
-      </c>
-      <c r="J12" s="16">
-        <f t="shared" si="3"/>
-        <v>-0.12830793679976563</v>
-      </c>
-      <c r="K12" s="6">
-        <f>Forecasting_주중!C11</f>
-        <v>1806586</v>
-      </c>
-      <c r="L12" s="6">
-        <f>Forecasting_주중!D11</f>
-        <v>1665005.5</v>
-      </c>
-      <c r="M12" s="6">
-        <f t="shared" si="4"/>
-        <v>-141580.5</v>
-      </c>
-      <c r="N12" s="16">
-        <f t="shared" si="5"/>
-        <v>-7.8369089542374398E-2</v>
-      </c>
-      <c r="O12" s="6"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="6">
-        <f>Forecasting_전체!C12</f>
-        <v>3464111</v>
-      </c>
-      <c r="D13" s="6">
-        <f>Forecasting_전체!D12</f>
-        <v>3274700</v>
-      </c>
-      <c r="E13" s="6">
-        <f t="shared" si="0"/>
-        <v>-189411</v>
-      </c>
-      <c r="F13" s="16">
-        <f t="shared" si="1"/>
-        <v>-5.4678097786127526E-2</v>
-      </c>
-      <c r="G13" s="6">
-        <f>Forecasting_주말!C12</f>
-        <v>1566682</v>
-      </c>
-      <c r="H13" s="6">
-        <f>Forecasting_주말!D12</f>
-        <v>1433868.75</v>
-      </c>
-      <c r="I13" s="6">
-        <f t="shared" si="2"/>
-        <v>-132813.25</v>
-      </c>
-      <c r="J13" s="16">
-        <f t="shared" si="3"/>
-        <v>-8.477358519469809E-2</v>
-      </c>
-      <c r="K13" s="6">
-        <f>Forecasting_주중!C12</f>
-        <v>1897429</v>
-      </c>
-      <c r="L13" s="6">
-        <f>Forecasting_주중!D12</f>
-        <v>1566386.25</v>
-      </c>
-      <c r="M13" s="6">
-        <f t="shared" si="4"/>
-        <v>-331042.75</v>
-      </c>
-      <c r="N13" s="16">
-        <f t="shared" si="5"/>
-        <v>-0.17446911057014519</v>
-      </c>
-      <c r="O13" s="12"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="6">
-        <f>Forecasting_전체!C13</f>
-        <v>3473501</v>
-      </c>
-      <c r="D14" s="6">
-        <f>Forecasting_전체!D13</f>
-        <v>3403701.5</v>
-      </c>
-      <c r="E14" s="6">
-        <f t="shared" si="0"/>
-        <v>-69799.5</v>
-      </c>
-      <c r="F14" s="16">
-        <f t="shared" si="1"/>
-        <v>-2.0094855305929089E-2</v>
-      </c>
-      <c r="G14" s="6">
-        <f>Forecasting_주말!C13</f>
-        <v>2009616</v>
-      </c>
-      <c r="H14" s="6">
-        <f>Forecasting_주말!D13</f>
-        <v>1678476.875</v>
-      </c>
-      <c r="I14" s="6">
-        <f t="shared" si="2"/>
-        <v>-331139.125</v>
-      </c>
-      <c r="J14" s="16">
-        <f t="shared" si="3"/>
-        <v>-0.16477731317823902</v>
-      </c>
-      <c r="K14" s="6">
-        <f>Forecasting_주중!C13</f>
-        <v>1463885</v>
-      </c>
-      <c r="L14" s="6">
-        <f>Forecasting_주중!D13</f>
-        <v>1194498</v>
-      </c>
-      <c r="M14" s="6">
-        <f t="shared" si="4"/>
-        <v>-269387</v>
-      </c>
-      <c r="N14" s="16">
-        <f t="shared" si="5"/>
-        <v>-0.18402196893881692</v>
-      </c>
-      <c r="O14" s="12"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A15" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="15">
-        <f>AVERAGE(C3:C14)</f>
-        <v>3419503.9166666665</v>
-      </c>
-      <c r="D15" s="15">
-        <f>AVERAGE(D3:D14)</f>
-        <v>3283488.3958333335</v>
-      </c>
-      <c r="E15" s="15">
-        <f>AVERAGE(E3:E14)</f>
-        <v>-136015.52083333334</v>
-      </c>
-      <c r="F15" s="16">
-        <f>AVERAGE(F3:F14)</f>
-        <v>-3.8977197187497113E-2</v>
-      </c>
-      <c r="G15" s="15">
-        <f>AVERAGE(G3:G14)</f>
-        <v>1731621</v>
-      </c>
-      <c r="H15" s="15">
-        <f>AVERAGE(H3:H14)</f>
-        <v>1664554.125</v>
-      </c>
-      <c r="I15" s="15">
-        <f>AVERAGE(I3:I14)</f>
-        <v>-67066.875</v>
-      </c>
-      <c r="J15" s="16">
-        <f>AVERAGE(J3:J14)</f>
-        <v>-3.9402788803079417E-2</v>
-      </c>
-      <c r="K15" s="15">
-        <f>AVERAGE(K3:K14)</f>
-        <v>1687882.9166666667</v>
-      </c>
-      <c r="L15" s="15">
-        <f>AVERAGE(L3:L14)</f>
-        <v>1543065.6458333333</v>
-      </c>
-      <c r="M15" s="15">
-        <f>AVERAGE(M3:M14)</f>
-        <v>-144817.27083333334</v>
-      </c>
-      <c r="N15" s="16">
-        <f>AVERAGE(N3:N14)</f>
-        <v>-8.59161493596899E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="B16"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B17"/>
-      <c r="F17"/>
-      <c r="J17"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B18"/>
-      <c r="F18"/>
-      <c r="J18"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B19"/>
-      <c r="F19"/>
-      <c r="J19"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B20"/>
-      <c r="F20"/>
-      <c r="J20"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B21"/>
-      <c r="F21"/>
-      <c r="J21"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B22"/>
-      <c r="F22"/>
-      <c r="J22"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B23"/>
-      <c r="F23"/>
-      <c r="J23"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B24"/>
-      <c r="F24"/>
-      <c r="J24"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B25"/>
-      <c r="F25"/>
-      <c r="J25"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B26"/>
-      <c r="F26"/>
-      <c r="J26"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B27"/>
-      <c r="F27"/>
-      <c r="J27"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B28"/>
-      <c r="F28"/>
-      <c r="J28"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B29"/>
-      <c r="F29"/>
-      <c r="J29"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B30"/>
-      <c r="F30"/>
-      <c r="J30"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B31"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B32"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B33"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B34"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B35"/>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:Q13"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>